--- a/INTLINE/data/534/MOSPI/IIP/IIPNIC.xlsx
+++ b/INTLINE/data/534/MOSPI/IIP/IIPNIC.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20380"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\New folder (2)\IIP Oct 2021 (ND)\Files for release\DIID\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D59D5AE-3074-4C99-9E08-33D4C5B68A38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9030" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NIC 2d, sectoral monthly" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'NIC 2d, sectoral monthly'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -208,12 +214,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,7 +293,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -366,14 +372,17 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -436,7 +445,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -468,9 +477,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -502,6 +529,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -677,17 +722,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DK70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:DN413"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="DE7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="6" topLeftCell="DA31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="DJ9" sqref="DJ9"/>
+      <selection pane="bottomRight" activeCell="DQ52" sqref="DQ52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="48.5703125" style="1" customWidth="1"/>
@@ -695,33 +740,33 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:115">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-    </row>
-    <row r="2" spans="1:115">
-      <c r="A2" s="38" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+    </row>
+    <row r="2" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-    </row>
-    <row r="3" spans="1:115">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+    </row>
+    <row r="3" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:115">
+    <row r="4" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
     </row>
-    <row r="6" spans="1:115" s="3" customFormat="1">
+    <row r="6" spans="1:118" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>0</v>
       </c>
@@ -1067,8 +1112,17 @@
       <c r="DK6" s="4">
         <v>44378</v>
       </c>
-    </row>
-    <row r="7" spans="1:115">
+      <c r="DL6" s="4">
+        <v>44409</v>
+      </c>
+      <c r="DM6" s="4">
+        <v>44440</v>
+      </c>
+      <c r="DN6" s="4">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="7" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>10</v>
       </c>
@@ -1393,29 +1447,38 @@
       <c r="DD7" s="8">
         <v>149.1</v>
       </c>
-      <c r="DE7" s="8">
+      <c r="DE7" s="31">
         <v>149</v>
       </c>
-      <c r="DF7" s="8">
+      <c r="DF7" s="31">
         <v>136.69999999999999</v>
       </c>
-      <c r="DG7" s="8">
+      <c r="DG7" s="31">
         <v>138.30000000000001</v>
       </c>
-      <c r="DH7" s="8">
+      <c r="DH7" s="31">
         <v>127.8</v>
       </c>
-      <c r="DI7" s="8">
-        <v>113</v>
-      </c>
-      <c r="DJ7" s="8">
-        <v>110.6</v>
-      </c>
-      <c r="DK7" s="8">
-        <v>117.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:115">
+      <c r="DI7" s="31">
+        <v>111.4</v>
+      </c>
+      <c r="DJ7" s="31">
+        <v>111.3</v>
+      </c>
+      <c r="DK7" s="31">
+        <v>116.2</v>
+      </c>
+      <c r="DL7" s="31">
+        <v>116.3</v>
+      </c>
+      <c r="DM7" s="11">
+        <v>111.5</v>
+      </c>
+      <c r="DN7" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>11</v>
       </c>
@@ -1740,29 +1803,38 @@
       <c r="DD8" s="8">
         <v>90.1</v>
       </c>
-      <c r="DE8" s="8">
+      <c r="DE8" s="31">
         <v>95.4</v>
       </c>
-      <c r="DF8" s="8">
+      <c r="DF8" s="31">
         <v>94.7</v>
       </c>
-      <c r="DG8" s="8">
+      <c r="DG8" s="31">
         <v>110.7</v>
       </c>
-      <c r="DH8" s="8">
+      <c r="DH8" s="31">
         <v>91.5</v>
       </c>
-      <c r="DI8" s="8">
-        <v>54.6</v>
-      </c>
-      <c r="DJ8" s="8">
-        <v>81.400000000000006</v>
-      </c>
-      <c r="DK8" s="8">
-        <v>89.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:115">
+      <c r="DI8" s="31">
+        <v>54.8</v>
+      </c>
+      <c r="DJ8" s="31">
+        <v>82</v>
+      </c>
+      <c r="DK8" s="31">
+        <v>90.2</v>
+      </c>
+      <c r="DL8" s="31">
+        <v>86.3</v>
+      </c>
+      <c r="DM8" s="11">
+        <v>86.3</v>
+      </c>
+      <c r="DN8" s="1">
+        <v>87.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>12</v>
       </c>
@@ -2087,29 +2159,38 @@
       <c r="DD9" s="8">
         <v>98.1</v>
       </c>
-      <c r="DE9" s="8">
+      <c r="DE9" s="31">
         <v>103.7</v>
       </c>
-      <c r="DF9" s="8">
+      <c r="DF9" s="31">
         <v>79.2</v>
       </c>
-      <c r="DG9" s="8">
+      <c r="DG9" s="31">
         <v>114</v>
       </c>
-      <c r="DH9" s="8">
+      <c r="DH9" s="31">
         <v>70</v>
       </c>
-      <c r="DI9" s="8">
-        <v>73.400000000000006</v>
-      </c>
-      <c r="DJ9" s="8">
-        <v>76.099999999999994</v>
-      </c>
-      <c r="DK9" s="8">
-        <v>75.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:115">
+      <c r="DI9" s="31">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="DJ9" s="31">
+        <v>74</v>
+      </c>
+      <c r="DK9" s="31">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="DL9" s="31">
+        <v>87</v>
+      </c>
+      <c r="DM9" s="11">
+        <v>94.9</v>
+      </c>
+      <c r="DN9" s="1">
+        <v>94.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>13</v>
       </c>
@@ -2434,29 +2515,38 @@
       <c r="DD10" s="8">
         <v>114.9</v>
       </c>
-      <c r="DE10" s="8">
+      <c r="DE10" s="31">
         <v>115.3</v>
       </c>
-      <c r="DF10" s="8">
+      <c r="DF10" s="31">
         <v>113.5</v>
       </c>
-      <c r="DG10" s="8">
+      <c r="DG10" s="31">
         <v>119.6</v>
       </c>
-      <c r="DH10" s="8">
+      <c r="DH10" s="31">
         <v>114.6</v>
       </c>
-      <c r="DI10" s="8">
-        <v>105.5</v>
-      </c>
-      <c r="DJ10" s="8">
-        <v>111.4</v>
-      </c>
-      <c r="DK10" s="8">
-        <v>117.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:115">
+      <c r="DI10" s="31">
+        <v>105.3</v>
+      </c>
+      <c r="DJ10" s="31">
+        <v>111.3</v>
+      </c>
+      <c r="DK10" s="31">
+        <v>117.8</v>
+      </c>
+      <c r="DL10" s="31">
+        <v>119.7</v>
+      </c>
+      <c r="DM10" s="11">
+        <v>119.6</v>
+      </c>
+      <c r="DN10" s="1">
+        <v>122.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>14</v>
       </c>
@@ -2781,29 +2871,38 @@
       <c r="DD11" s="8">
         <v>140</v>
       </c>
-      <c r="DE11" s="8">
+      <c r="DE11" s="31">
         <v>129.4</v>
       </c>
-      <c r="DF11" s="8">
+      <c r="DF11" s="31">
         <v>140</v>
       </c>
-      <c r="DG11" s="8">
+      <c r="DG11" s="31">
         <v>143.80000000000001</v>
       </c>
-      <c r="DH11" s="8">
+      <c r="DH11" s="31">
         <v>83.4</v>
       </c>
-      <c r="DI11" s="8">
-        <v>120.1</v>
-      </c>
-      <c r="DJ11" s="8">
-        <v>109.9</v>
-      </c>
-      <c r="DK11" s="8">
-        <v>115.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:115">
+      <c r="DI11" s="31">
+        <v>83.8</v>
+      </c>
+      <c r="DJ11" s="31">
+        <v>110</v>
+      </c>
+      <c r="DK11" s="31">
+        <v>116.8</v>
+      </c>
+      <c r="DL11" s="31">
+        <v>117.6</v>
+      </c>
+      <c r="DM11" s="11">
+        <v>120.7</v>
+      </c>
+      <c r="DN11" s="1">
+        <v>122.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>15</v>
       </c>
@@ -3128,29 +3227,38 @@
       <c r="DD12" s="8">
         <v>121.9</v>
       </c>
-      <c r="DE12" s="8">
+      <c r="DE12" s="31">
         <v>124.9</v>
       </c>
-      <c r="DF12" s="8">
+      <c r="DF12" s="31">
         <v>121.7</v>
       </c>
-      <c r="DG12" s="8">
+      <c r="DG12" s="31">
         <v>123.4</v>
       </c>
-      <c r="DH12" s="8">
+      <c r="DH12" s="31">
         <v>101.3</v>
       </c>
-      <c r="DI12" s="8">
-        <v>67.599999999999994</v>
-      </c>
-      <c r="DJ12" s="8">
-        <v>92.2</v>
-      </c>
-      <c r="DK12" s="8">
-        <v>110.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:115" ht="47.25">
+      <c r="DI12" s="31">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="DJ12" s="31">
+        <v>94.1</v>
+      </c>
+      <c r="DK12" s="31">
+        <v>114.7</v>
+      </c>
+      <c r="DL12" s="31">
+        <v>107.2</v>
+      </c>
+      <c r="DM12" s="11">
+        <v>109.6</v>
+      </c>
+      <c r="DN12" s="1">
+        <v>104.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:118" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>16</v>
       </c>
@@ -3475,29 +3583,38 @@
       <c r="DD13" s="8">
         <v>126.6</v>
       </c>
-      <c r="DE13" s="8">
+      <c r="DE13" s="31">
         <v>112</v>
       </c>
-      <c r="DF13" s="8">
+      <c r="DF13" s="31">
         <v>110.4</v>
       </c>
-      <c r="DG13" s="8">
+      <c r="DG13" s="31">
         <v>124.3</v>
       </c>
-      <c r="DH13" s="8">
+      <c r="DH13" s="31">
         <v>102</v>
       </c>
-      <c r="DI13" s="8">
-        <v>72.7</v>
-      </c>
-      <c r="DJ13" s="8">
-        <v>96.8</v>
-      </c>
-      <c r="DK13" s="8">
-        <v>101.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:115">
+      <c r="DI13" s="31">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="DJ13" s="31">
+        <v>97.9</v>
+      </c>
+      <c r="DK13" s="31">
+        <v>103.1</v>
+      </c>
+      <c r="DL13" s="31">
+        <v>111</v>
+      </c>
+      <c r="DM13" s="11">
+        <v>110</v>
+      </c>
+      <c r="DN13" s="1">
+        <v>110.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>17</v>
       </c>
@@ -3822,29 +3939,38 @@
       <c r="DD14" s="8">
         <v>78.099999999999994</v>
       </c>
-      <c r="DE14" s="8">
+      <c r="DE14" s="31">
         <v>80.2</v>
       </c>
-      <c r="DF14" s="8">
+      <c r="DF14" s="31">
         <v>79.3</v>
       </c>
-      <c r="DG14" s="8">
+      <c r="DG14" s="31">
         <v>89.7</v>
       </c>
-      <c r="DH14" s="8">
+      <c r="DH14" s="31">
         <v>88.1</v>
       </c>
-      <c r="DI14" s="8">
-        <v>78.900000000000006</v>
-      </c>
-      <c r="DJ14" s="8">
-        <v>76.400000000000006</v>
-      </c>
-      <c r="DK14" s="8">
+      <c r="DI14" s="31">
+        <v>78.7</v>
+      </c>
+      <c r="DJ14" s="31">
+        <v>76.3</v>
+      </c>
+      <c r="DK14" s="31">
         <v>85.1</v>
       </c>
-    </row>
-    <row r="15" spans="1:115">
+      <c r="DL14" s="31">
+        <v>82</v>
+      </c>
+      <c r="DM14" s="11">
+        <v>77</v>
+      </c>
+      <c r="DN14" s="1">
+        <v>86.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>18</v>
       </c>
@@ -4169,29 +4295,38 @@
       <c r="DD15" s="8">
         <v>83</v>
       </c>
-      <c r="DE15" s="8">
+      <c r="DE15" s="31">
         <v>70</v>
       </c>
-      <c r="DF15" s="8">
+      <c r="DF15" s="31">
         <v>67.599999999999994</v>
       </c>
-      <c r="DG15" s="8">
+      <c r="DG15" s="31">
         <v>75.8</v>
       </c>
-      <c r="DH15" s="8">
+      <c r="DH15" s="31">
         <v>64.7</v>
       </c>
-      <c r="DI15" s="8">
-        <v>67.099999999999994</v>
-      </c>
-      <c r="DJ15" s="8">
-        <v>69.3</v>
-      </c>
-      <c r="DK15" s="8">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:115">
+      <c r="DI15" s="31">
+        <v>61.9</v>
+      </c>
+      <c r="DJ15" s="31">
+        <v>68.7</v>
+      </c>
+      <c r="DK15" s="31">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="DL15" s="31">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="DM15" s="11">
+        <v>69.8</v>
+      </c>
+      <c r="DN15" s="1">
+        <v>72.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>19</v>
       </c>
@@ -4516,29 +4651,38 @@
       <c r="DD16" s="8">
         <v>125</v>
       </c>
-      <c r="DE16" s="8">
+      <c r="DE16" s="31">
         <v>129.30000000000001</v>
       </c>
-      <c r="DF16" s="8">
+      <c r="DF16" s="31">
         <v>113.7</v>
       </c>
-      <c r="DG16" s="8">
+      <c r="DG16" s="31">
         <v>130.9</v>
       </c>
-      <c r="DH16" s="8">
+      <c r="DH16" s="31">
         <v>118.5</v>
       </c>
-      <c r="DI16" s="8">
+      <c r="DI16" s="31">
         <v>113.8</v>
       </c>
-      <c r="DJ16" s="8">
+      <c r="DJ16" s="31">
         <v>110.1</v>
       </c>
-      <c r="DK16" s="8">
+      <c r="DK16" s="31">
         <v>117.9</v>
       </c>
-    </row>
-    <row r="17" spans="1:115">
+      <c r="DL16" s="31">
+        <v>112.1</v>
+      </c>
+      <c r="DM16" s="11">
+        <v>108.5</v>
+      </c>
+      <c r="DN16" s="1">
+        <v>123.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>20</v>
       </c>
@@ -4863,29 +5007,38 @@
       <c r="DD17" s="8">
         <v>131.80000000000001</v>
       </c>
-      <c r="DE17" s="8">
+      <c r="DE17" s="31">
         <v>131.6</v>
       </c>
-      <c r="DF17" s="8">
+      <c r="DF17" s="31">
         <v>119</v>
       </c>
-      <c r="DG17" s="8">
+      <c r="DG17" s="31">
         <v>127.9</v>
       </c>
-      <c r="DH17" s="8">
+      <c r="DH17" s="31">
         <v>118.1</v>
       </c>
-      <c r="DI17" s="8">
-        <v>109.2</v>
-      </c>
-      <c r="DJ17" s="8">
-        <v>116.1</v>
-      </c>
-      <c r="DK17" s="8">
-        <v>127.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:115" ht="31.5">
+      <c r="DI17" s="31">
+        <v>109.1</v>
+      </c>
+      <c r="DJ17" s="31">
+        <v>116.3</v>
+      </c>
+      <c r="DK17" s="31">
+        <v>128</v>
+      </c>
+      <c r="DL17" s="31">
+        <v>124.7</v>
+      </c>
+      <c r="DM17" s="11">
+        <v>123.2</v>
+      </c>
+      <c r="DN17" s="1">
+        <v>124.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:118" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>21</v>
       </c>
@@ -5210,29 +5363,38 @@
       <c r="DD18" s="8">
         <v>239.9</v>
       </c>
-      <c r="DE18" s="8">
+      <c r="DE18" s="31">
         <v>205.4</v>
       </c>
-      <c r="DF18" s="8">
+      <c r="DF18" s="31">
         <v>216.8</v>
       </c>
-      <c r="DG18" s="8">
+      <c r="DG18" s="31">
         <v>230.7</v>
       </c>
-      <c r="DH18" s="8">
+      <c r="DH18" s="31">
         <v>202.3</v>
       </c>
-      <c r="DI18" s="8">
-        <v>219.4</v>
-      </c>
-      <c r="DJ18" s="8">
-        <v>225.6</v>
-      </c>
-      <c r="DK18" s="8">
-        <v>231.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:115">
+      <c r="DI18" s="31">
+        <v>217.1</v>
+      </c>
+      <c r="DJ18" s="31">
+        <v>226.9</v>
+      </c>
+      <c r="DK18" s="31">
+        <v>228.6</v>
+      </c>
+      <c r="DL18" s="31">
+        <v>233.8</v>
+      </c>
+      <c r="DM18" s="11">
+        <v>238.5</v>
+      </c>
+      <c r="DN18" s="1">
+        <v>235.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>22</v>
       </c>
@@ -5557,29 +5719,38 @@
       <c r="DD19" s="8">
         <v>112.8</v>
       </c>
-      <c r="DE19" s="8">
+      <c r="DE19" s="31">
         <v>108.5</v>
       </c>
-      <c r="DF19" s="8">
+      <c r="DF19" s="31">
         <v>105.7</v>
       </c>
-      <c r="DG19" s="8">
+      <c r="DG19" s="31">
         <v>114.8</v>
       </c>
-      <c r="DH19" s="8">
+      <c r="DH19" s="31">
         <v>106.5</v>
       </c>
-      <c r="DI19" s="8">
-        <v>96.8</v>
-      </c>
-      <c r="DJ19" s="8">
-        <v>99.5</v>
-      </c>
-      <c r="DK19" s="8">
-        <v>107.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:115">
+      <c r="DI19" s="31">
+        <v>96.7</v>
+      </c>
+      <c r="DJ19" s="31">
+        <v>99.4</v>
+      </c>
+      <c r="DK19" s="31">
+        <v>108.6</v>
+      </c>
+      <c r="DL19" s="31">
+        <v>108.2</v>
+      </c>
+      <c r="DM19" s="11">
+        <v>108.1</v>
+      </c>
+      <c r="DN19" s="1">
+        <v>103.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>23</v>
       </c>
@@ -5904,29 +6075,38 @@
       <c r="DD20" s="8">
         <v>122.6</v>
       </c>
-      <c r="DE20" s="8">
+      <c r="DE20" s="31">
         <v>127.2</v>
       </c>
-      <c r="DF20" s="8">
+      <c r="DF20" s="31">
         <v>124.4</v>
       </c>
-      <c r="DG20" s="8">
+      <c r="DG20" s="31">
         <v>140.30000000000001</v>
       </c>
-      <c r="DH20" s="8">
+      <c r="DH20" s="31">
         <v>128.1</v>
       </c>
-      <c r="DI20" s="8">
-        <v>107.9</v>
-      </c>
-      <c r="DJ20" s="8">
-        <v>119.3</v>
-      </c>
-      <c r="DK20" s="8">
-        <v>126.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:115">
+      <c r="DI20" s="31">
+        <v>110.1</v>
+      </c>
+      <c r="DJ20" s="31">
+        <v>119.2</v>
+      </c>
+      <c r="DK20" s="31">
+        <v>126.9</v>
+      </c>
+      <c r="DL20" s="31">
+        <v>122.3</v>
+      </c>
+      <c r="DM20" s="11">
+        <v>115.8</v>
+      </c>
+      <c r="DN20" s="1">
+        <v>129.19999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>24</v>
       </c>
@@ -6251,29 +6431,38 @@
       <c r="DD21" s="8">
         <v>181.7</v>
       </c>
-      <c r="DE21" s="8">
+      <c r="DE21" s="31">
         <v>179.8</v>
       </c>
-      <c r="DF21" s="8">
+      <c r="DF21" s="31">
         <v>163.6</v>
       </c>
-      <c r="DG21" s="8">
+      <c r="DG21" s="31">
         <v>184.7</v>
       </c>
-      <c r="DH21" s="8">
+      <c r="DH21" s="31">
         <v>168.5</v>
       </c>
-      <c r="DI21" s="8">
+      <c r="DI21" s="31">
         <v>159.80000000000001</v>
       </c>
-      <c r="DJ21" s="8">
-        <v>163.19999999999999</v>
-      </c>
-      <c r="DK21" s="8">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="22" spans="1:115" ht="31.5">
+      <c r="DJ21" s="31">
+        <v>163.5</v>
+      </c>
+      <c r="DK21" s="31">
+        <v>171.1</v>
+      </c>
+      <c r="DL21" s="31">
+        <v>174</v>
+      </c>
+      <c r="DM21" s="11">
+        <v>170.4</v>
+      </c>
+      <c r="DN21" s="1">
+        <v>177.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:118" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>25</v>
       </c>
@@ -6598,29 +6787,38 @@
       <c r="DD22" s="8">
         <v>99</v>
       </c>
-      <c r="DE22" s="8">
+      <c r="DE22" s="31">
         <v>93.7</v>
       </c>
-      <c r="DF22" s="8">
+      <c r="DF22" s="31">
         <v>92.4</v>
       </c>
-      <c r="DG22" s="8">
+      <c r="DG22" s="31">
         <v>102</v>
       </c>
-      <c r="DH22" s="8">
+      <c r="DH22" s="31">
         <v>78.2</v>
       </c>
-      <c r="DI22" s="8">
-        <v>64.7</v>
-      </c>
-      <c r="DJ22" s="8">
-        <v>79.400000000000006</v>
-      </c>
-      <c r="DK22" s="8">
-        <v>89.7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:115" ht="31.5">
+      <c r="DI22" s="31">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="DJ22" s="31">
+        <v>79.7</v>
+      </c>
+      <c r="DK22" s="31">
+        <v>90.3</v>
+      </c>
+      <c r="DL22" s="31">
+        <v>91.3</v>
+      </c>
+      <c r="DM22" s="11">
+        <v>88.8</v>
+      </c>
+      <c r="DN22" s="1">
+        <v>86.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:118" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>26</v>
       </c>
@@ -6945,29 +7143,38 @@
       <c r="DD23" s="8">
         <v>138.80000000000001</v>
       </c>
-      <c r="DE23" s="8">
+      <c r="DE23" s="31">
         <v>155.6</v>
       </c>
-      <c r="DF23" s="8">
+      <c r="DF23" s="31">
         <v>166.5</v>
       </c>
-      <c r="DG23" s="8">
+      <c r="DG23" s="31">
         <v>206.2</v>
       </c>
-      <c r="DH23" s="8">
+      <c r="DH23" s="31">
         <v>119.2</v>
       </c>
-      <c r="DI23" s="8">
-        <v>94.5</v>
-      </c>
-      <c r="DJ23" s="8">
-        <v>126.3</v>
-      </c>
-      <c r="DK23" s="8">
-        <v>154.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:115">
+      <c r="DI23" s="31">
+        <v>95.2</v>
+      </c>
+      <c r="DJ23" s="31">
+        <v>125.6</v>
+      </c>
+      <c r="DK23" s="31">
+        <v>138.4</v>
+      </c>
+      <c r="DL23" s="31">
+        <v>139.4</v>
+      </c>
+      <c r="DM23" s="11">
+        <v>163.5</v>
+      </c>
+      <c r="DN23" s="1">
+        <v>162.30000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>27</v>
       </c>
@@ -7292,29 +7499,38 @@
       <c r="DD24" s="8">
         <v>131.80000000000001</v>
       </c>
-      <c r="DE24" s="8">
+      <c r="DE24" s="31">
         <v>109.7</v>
       </c>
-      <c r="DF24" s="8">
+      <c r="DF24" s="31">
         <v>106.3</v>
       </c>
-      <c r="DG24" s="8">
+      <c r="DG24" s="31">
         <v>110.1</v>
       </c>
-      <c r="DH24" s="8">
+      <c r="DH24" s="31">
         <v>84.5</v>
       </c>
-      <c r="DI24" s="8">
-        <v>64.2</v>
-      </c>
-      <c r="DJ24" s="8">
-        <v>84</v>
-      </c>
-      <c r="DK24" s="8">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:115">
+      <c r="DI24" s="31">
+        <v>61.6</v>
+      </c>
+      <c r="DJ24" s="31">
+        <v>84.2</v>
+      </c>
+      <c r="DK24" s="31">
+        <v>118.4</v>
+      </c>
+      <c r="DL24" s="31">
+        <v>129.4</v>
+      </c>
+      <c r="DM24" s="11">
+        <v>144.1</v>
+      </c>
+      <c r="DN24" s="1">
+        <v>127.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>28</v>
       </c>
@@ -7639,29 +7855,38 @@
       <c r="DD25" s="8">
         <v>118.5</v>
       </c>
-      <c r="DE25" s="8">
+      <c r="DE25" s="31">
         <v>110</v>
       </c>
-      <c r="DF25" s="8">
+      <c r="DF25" s="31">
         <v>111.8</v>
       </c>
-      <c r="DG25" s="8">
+      <c r="DG25" s="31">
         <v>130.5</v>
       </c>
-      <c r="DH25" s="8">
+      <c r="DH25" s="31">
         <v>94.4</v>
       </c>
-      <c r="DI25" s="8">
-        <v>77.8</v>
-      </c>
-      <c r="DJ25" s="8">
-        <v>96</v>
-      </c>
-      <c r="DK25" s="8">
-        <v>107.1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:115" ht="31.5">
+      <c r="DI25" s="31">
+        <v>76.3</v>
+      </c>
+      <c r="DJ25" s="31">
+        <v>96.3</v>
+      </c>
+      <c r="DK25" s="31">
+        <v>109.1</v>
+      </c>
+      <c r="DL25" s="31">
+        <v>109</v>
+      </c>
+      <c r="DM25" s="11">
+        <v>112.6</v>
+      </c>
+      <c r="DN25" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:118" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>29</v>
       </c>
@@ -7986,29 +8211,38 @@
       <c r="DD26" s="8">
         <v>103.2</v>
       </c>
-      <c r="DE26" s="8">
+      <c r="DE26" s="31">
         <v>107.8</v>
       </c>
-      <c r="DF26" s="8">
+      <c r="DF26" s="31">
         <v>105.6</v>
       </c>
-      <c r="DG26" s="8">
+      <c r="DG26" s="31">
         <v>114.9</v>
       </c>
-      <c r="DH26" s="8">
+      <c r="DH26" s="31">
         <v>102.2</v>
       </c>
-      <c r="DI26" s="8">
-        <v>59.9</v>
-      </c>
-      <c r="DJ26" s="8">
-        <v>88</v>
-      </c>
-      <c r="DK26" s="8">
-        <v>99.6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:115">
+      <c r="DI26" s="31">
+        <v>59.2</v>
+      </c>
+      <c r="DJ26" s="31">
+        <v>87.8</v>
+      </c>
+      <c r="DK26" s="31">
+        <v>101.2</v>
+      </c>
+      <c r="DL26" s="31">
+        <v>93.6</v>
+      </c>
+      <c r="DM26" s="11">
+        <v>90.4</v>
+      </c>
+      <c r="DN26" s="1">
+        <v>96.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>30</v>
       </c>
@@ -8333,29 +8567,38 @@
       <c r="DD27" s="8">
         <v>121.1</v>
       </c>
-      <c r="DE27" s="8">
+      <c r="DE27" s="31">
         <v>136.4</v>
       </c>
-      <c r="DF27" s="8">
+      <c r="DF27" s="31">
         <v>134.5</v>
       </c>
-      <c r="DG27" s="8">
+      <c r="DG27" s="31">
         <v>145.30000000000001</v>
       </c>
-      <c r="DH27" s="8">
+      <c r="DH27" s="31">
         <v>108.7</v>
       </c>
-      <c r="DI27" s="8">
-        <v>53.6</v>
-      </c>
-      <c r="DJ27" s="8">
+      <c r="DI27" s="31">
+        <v>52.2</v>
+      </c>
+      <c r="DJ27" s="31">
         <v>103.4</v>
       </c>
-      <c r="DK27" s="8">
-        <v>129.30000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:115">
+      <c r="DK27" s="31">
+        <v>128.19999999999999</v>
+      </c>
+      <c r="DL27" s="31">
+        <v>124.6</v>
+      </c>
+      <c r="DM27" s="11">
+        <v>134.69999999999999</v>
+      </c>
+      <c r="DN27" s="1">
+        <v>141.19999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>31</v>
       </c>
@@ -8680,29 +8923,38 @@
       <c r="DD28" s="8">
         <v>183.9</v>
       </c>
-      <c r="DE28" s="8">
+      <c r="DE28" s="31">
         <v>163.4</v>
       </c>
-      <c r="DF28" s="8">
+      <c r="DF28" s="31">
         <v>162.4</v>
       </c>
-      <c r="DG28" s="8">
+      <c r="DG28" s="31">
         <v>171.3</v>
       </c>
-      <c r="DH28" s="8">
+      <c r="DH28" s="31">
         <v>128</v>
       </c>
-      <c r="DI28" s="8">
-        <v>118.4</v>
-      </c>
-      <c r="DJ28" s="8">
-        <v>156</v>
-      </c>
-      <c r="DK28" s="8">
-        <v>155.19999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:115">
+      <c r="DI28" s="31">
+        <v>118.5</v>
+      </c>
+      <c r="DJ28" s="31">
+        <v>158</v>
+      </c>
+      <c r="DK28" s="31">
+        <v>160.9</v>
+      </c>
+      <c r="DL28" s="31">
+        <v>168.2</v>
+      </c>
+      <c r="DM28" s="11">
+        <v>172.6</v>
+      </c>
+      <c r="DN28" s="1">
+        <v>175.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>32</v>
       </c>
@@ -9027,33 +9279,42 @@
       <c r="DD29" s="8">
         <v>76.7</v>
       </c>
-      <c r="DE29" s="8">
+      <c r="DE29" s="31">
         <v>85</v>
       </c>
-      <c r="DF29" s="8">
+      <c r="DF29" s="31">
         <v>86.2</v>
       </c>
-      <c r="DG29" s="8">
+      <c r="DG29" s="31">
         <v>93.5</v>
       </c>
-      <c r="DH29" s="8">
+      <c r="DH29" s="31">
         <v>94.9</v>
       </c>
-      <c r="DI29" s="8">
-        <v>68</v>
-      </c>
-      <c r="DJ29" s="8">
-        <v>75.5</v>
-      </c>
-      <c r="DK29" s="8">
-        <v>83.4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:115">
-      <c r="A30" s="38" t="s">
+      <c r="DI29" s="31">
+        <v>67.2</v>
+      </c>
+      <c r="DJ29" s="31">
+        <v>75.7</v>
+      </c>
+      <c r="DK29" s="31">
+        <v>84.7</v>
+      </c>
+      <c r="DL29" s="31">
+        <v>95.3</v>
+      </c>
+      <c r="DM29" s="11">
+        <v>106.4</v>
+      </c>
+      <c r="DN29" s="1">
+        <v>114.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A30" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="38"/>
+      <c r="B30" s="36"/>
       <c r="C30" s="7">
         <v>14.372472</v>
       </c>
@@ -9372,33 +9633,42 @@
       <c r="DD30" s="8">
         <v>117.3</v>
       </c>
-      <c r="DE30" s="8">
+      <c r="DE30" s="31">
         <v>121.3</v>
       </c>
-      <c r="DF30" s="8">
+      <c r="DF30" s="31">
         <v>117.9</v>
       </c>
-      <c r="DG30" s="8">
+      <c r="DG30" s="31">
         <v>139</v>
       </c>
-      <c r="DH30" s="8">
+      <c r="DH30" s="31">
         <v>107.6</v>
       </c>
-      <c r="DI30" s="8">
-        <v>108</v>
-      </c>
-      <c r="DJ30" s="8">
+      <c r="DI30" s="31">
+        <v>108.3</v>
+      </c>
+      <c r="DJ30" s="31">
         <v>105.5</v>
       </c>
-      <c r="DK30" s="8">
+      <c r="DK30" s="31">
         <v>104.6</v>
       </c>
-    </row>
-    <row r="31" spans="1:115">
-      <c r="A31" s="38" t="s">
+      <c r="DL30" s="31">
+        <v>103.8</v>
+      </c>
+      <c r="DM30" s="11">
+        <v>95.1</v>
+      </c>
+      <c r="DN30" s="1">
+        <v>109.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A31" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="38"/>
+      <c r="B31" s="36"/>
       <c r="C31" s="7">
         <v>77.633210000000005</v>
       </c>
@@ -9717,33 +9987,42 @@
       <c r="DD31" s="8">
         <v>139</v>
       </c>
-      <c r="DE31" s="8">
+      <c r="DE31" s="31">
         <v>136.6</v>
       </c>
-      <c r="DF31" s="8">
+      <c r="DF31" s="31">
         <v>129.69999999999999</v>
       </c>
-      <c r="DG31" s="8">
+      <c r="DG31" s="31">
         <v>143.30000000000001</v>
       </c>
-      <c r="DH31" s="8">
+      <c r="DH31" s="31">
         <v>124.6</v>
       </c>
-      <c r="DI31" s="8">
-        <v>112.7</v>
-      </c>
-      <c r="DJ31" s="8">
-        <v>121</v>
-      </c>
-      <c r="DK31" s="8">
-        <v>130.9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:115">
-      <c r="A32" s="38" t="s">
+      <c r="DI31" s="31">
+        <v>111.5</v>
+      </c>
+      <c r="DJ31" s="31">
+        <v>121.2</v>
+      </c>
+      <c r="DK31" s="31">
+        <v>131</v>
+      </c>
+      <c r="DL31" s="31">
+        <v>130.5</v>
+      </c>
+      <c r="DM31" s="11">
+        <v>130.30000000000001</v>
+      </c>
+      <c r="DN31" s="1">
+        <v>134.69999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A32" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="38"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="7">
         <v>7.9943179999999998</v>
       </c>
@@ -10062,33 +10341,42 @@
       <c r="DD32" s="8">
         <v>158</v>
       </c>
-      <c r="DE32" s="8">
+      <c r="DE32" s="31">
         <v>164.2</v>
       </c>
-      <c r="DF32" s="8">
+      <c r="DF32" s="31">
         <v>153.9</v>
       </c>
-      <c r="DG32" s="8">
+      <c r="DG32" s="31">
         <v>180</v>
       </c>
-      <c r="DH32" s="8">
+      <c r="DH32" s="31">
         <v>174</v>
       </c>
-      <c r="DI32" s="8">
+      <c r="DI32" s="31">
         <v>161.9</v>
       </c>
-      <c r="DJ32" s="8">
+      <c r="DJ32" s="31">
         <v>169.1</v>
       </c>
-      <c r="DK32" s="8">
+      <c r="DK32" s="31">
         <v>184.7</v>
       </c>
-    </row>
-    <row r="33" spans="1:115">
-      <c r="A33" s="38" t="s">
+      <c r="DL32" s="31">
+        <v>188.7</v>
+      </c>
+      <c r="DM32" s="11">
+        <v>167.9</v>
+      </c>
+      <c r="DN32" s="1">
+        <v>167.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A33" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="38"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="7">
         <v>100</v>
       </c>
@@ -10407,36 +10695,61 @@
       <c r="DD33" s="8">
         <v>137.4</v>
       </c>
-      <c r="DE33" s="8">
+      <c r="DE33" s="31">
         <v>136.6</v>
       </c>
-      <c r="DF33" s="8">
+      <c r="DF33" s="31">
         <v>129.9</v>
       </c>
-      <c r="DG33" s="8">
+      <c r="DG33" s="31">
         <v>145.6</v>
       </c>
-      <c r="DH33" s="8">
+      <c r="DH33" s="31">
         <v>126.1</v>
       </c>
-      <c r="DI33" s="8">
-        <v>116</v>
-      </c>
-      <c r="DJ33" s="8">
-        <v>122.6</v>
-      </c>
-      <c r="DK33" s="8">
-        <v>131.4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:115">
+      <c r="DI33" s="31">
+        <v>115.1</v>
+      </c>
+      <c r="DJ33" s="31">
+        <v>122.8</v>
+      </c>
+      <c r="DK33" s="31">
+        <v>131.5</v>
+      </c>
+      <c r="DL33" s="31">
+        <v>131.30000000000001</v>
+      </c>
+      <c r="DM33" s="11">
+        <v>128.19999999999999</v>
+      </c>
+      <c r="DN33" s="1">
+        <v>133.69999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="DJ34" s="11"/>
+      <c r="DK34" s="11"/>
+      <c r="DL34" s="11"/>
+      <c r="DM34" s="11"/>
+    </row>
+    <row r="35" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A35" s="37" t="s">
         <v>52</v>
       </c>
       <c r="B35" s="37"/>
       <c r="C35" s="37"/>
-    </row>
-    <row r="37" spans="1:115" s="3" customFormat="1">
+      <c r="DJ35" s="11"/>
+      <c r="DK35" s="11"/>
+      <c r="DL35" s="11"/>
+      <c r="DM35" s="11"/>
+    </row>
+    <row r="36" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="DJ36" s="11"/>
+      <c r="DK36" s="11"/>
+      <c r="DL36" s="11"/>
+      <c r="DM36" s="11"/>
+    </row>
+    <row r="37" spans="1:118" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>0</v>
       </c>
@@ -10780,8 +11093,17 @@
       <c r="DK37" s="28">
         <v>44378</v>
       </c>
-    </row>
-    <row r="38" spans="1:115">
+      <c r="DL37" s="28">
+        <v>44409</v>
+      </c>
+      <c r="DM37" s="28">
+        <v>44440</v>
+      </c>
+      <c r="DN37" s="28">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="38" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A38" s="22">
         <v>10</v>
       </c>
@@ -11119,16 +11441,25 @@
         <v>59</v>
       </c>
       <c r="DI38" s="29">
-        <v>15.3</v>
+        <v>13.7</v>
       </c>
       <c r="DJ38" s="29">
-        <v>7.7</v>
+        <v>8.4</v>
       </c>
       <c r="DK38" s="29">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:115">
+        <v>4.7</v>
+      </c>
+      <c r="DL38" s="11">
+        <v>8.6</v>
+      </c>
+      <c r="DM38" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="DN38" s="1">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A39" s="22">
         <v>11</v>
       </c>
@@ -11466,16 +11797,25 @@
         <v>59</v>
       </c>
       <c r="DI39" s="29">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="DJ39" s="29">
-        <v>-3</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="DK39" s="29">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:115">
+        <v>14.3</v>
+      </c>
+      <c r="DL39" s="11">
+        <v>12.4</v>
+      </c>
+      <c r="DM39" s="11">
+        <v>2</v>
+      </c>
+      <c r="DN39" s="1">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A40" s="22">
         <v>12</v>
       </c>
@@ -11813,16 +12153,25 @@
         <v>59</v>
       </c>
       <c r="DI40" s="29">
-        <v>80.3</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="DJ40" s="29">
-        <v>-16.899999999999999</v>
+        <v>-19.2</v>
       </c>
       <c r="DK40" s="29">
-        <v>-25.8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:115">
+        <v>-22.2</v>
+      </c>
+      <c r="DL40" s="11">
+        <v>3.3</v>
+      </c>
+      <c r="DM40" s="11">
+        <v>7.5</v>
+      </c>
+      <c r="DN40" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="41" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A41" s="22">
         <v>13</v>
       </c>
@@ -12160,16 +12509,25 @@
         <v>59</v>
       </c>
       <c r="DI41" s="29">
-        <v>162.4</v>
+        <v>161.9</v>
       </c>
       <c r="DJ41" s="29">
-        <v>76.5</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="DK41" s="29">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:115">
+        <v>25.5</v>
+      </c>
+      <c r="DL41" s="11">
+        <v>23.9</v>
+      </c>
+      <c r="DM41" s="11">
+        <v>13.5</v>
+      </c>
+      <c r="DN41" s="11">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A42" s="22">
         <v>14</v>
       </c>
@@ -12507,16 +12865,25 @@
         <v>59</v>
       </c>
       <c r="DI42" s="29">
-        <v>91.9</v>
+        <v>33.9</v>
       </c>
       <c r="DJ42" s="29">
+        <v>3.9</v>
+      </c>
+      <c r="DK42" s="29">
         <v>3.8</v>
       </c>
-      <c r="DK42" s="29">
+      <c r="DL42" s="11">
+        <v>3.3</v>
+      </c>
+      <c r="DM42" s="11">
+        <v>-0.6</v>
+      </c>
+      <c r="DN42" s="11">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:115">
+    <row r="43" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A43" s="22">
         <v>15</v>
       </c>
@@ -12854,16 +13221,25 @@
         <v>59</v>
       </c>
       <c r="DI43" s="29">
-        <v>29</v>
+        <v>28.1</v>
       </c>
       <c r="DJ43" s="29">
-        <v>-7.5</v>
+        <v>-5.6</v>
       </c>
       <c r="DK43" s="29">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:115">
+        <v>3.6</v>
+      </c>
+      <c r="DL43" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="DM43" s="11">
+        <v>-11.1</v>
+      </c>
+      <c r="DN43" s="11">
+        <v>-10.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A44" s="22">
         <v>16</v>
       </c>
@@ -13201,16 +13577,25 @@
         <v>59</v>
       </c>
       <c r="DI44" s="29">
-        <v>83.6</v>
+        <v>85.4</v>
       </c>
       <c r="DJ44" s="29">
-        <v>30.8</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="DK44" s="29">
-        <v>22.7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:115">
+        <v>24.2</v>
+      </c>
+      <c r="DL44" s="11">
+        <v>29.8</v>
+      </c>
+      <c r="DM44" s="11">
+        <v>-5.8</v>
+      </c>
+      <c r="DN44" s="11">
+        <v>-1.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A45" s="22">
         <v>17</v>
       </c>
@@ -13548,16 +13933,25 @@
         <v>59</v>
       </c>
       <c r="DI45" s="29">
-        <v>56.9</v>
+        <v>56.5</v>
       </c>
       <c r="DJ45" s="29">
-        <v>-7.8</v>
+        <v>-8</v>
       </c>
       <c r="DK45" s="29">
         <v>27</v>
       </c>
-    </row>
-    <row r="46" spans="1:115">
+      <c r="DL45" s="11">
+        <v>3.8</v>
+      </c>
+      <c r="DM45" s="11">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="DN45" s="11">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A46" s="22">
         <v>18</v>
       </c>
@@ -13895,16 +14289,25 @@
         <v>59</v>
       </c>
       <c r="DI46" s="29">
-        <v>27.6</v>
+        <v>17.7</v>
       </c>
       <c r="DJ46" s="29">
-        <v>-1.3</v>
+        <v>-2.1</v>
       </c>
       <c r="DK46" s="29">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:115">
+        <v>-0.1</v>
+      </c>
+      <c r="DL46" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="DM46" s="11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DN46" s="11">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A47" s="22">
         <v>19</v>
       </c>
@@ -14250,8 +14653,17 @@
       <c r="DK47" s="29">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="48" spans="1:115">
+      <c r="DL47" s="11">
+        <v>11.4</v>
+      </c>
+      <c r="DM47" s="11">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="DN47" s="11">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A48" s="22">
         <v>20</v>
       </c>
@@ -14589,16 +15001,25 @@
         <v>59</v>
       </c>
       <c r="DI48" s="29">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="DJ48" s="29">
-        <v>-1</v>
+        <v>-0.9</v>
       </c>
       <c r="DK48" s="29">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:115">
+        <v>4.7</v>
+      </c>
+      <c r="DL48" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="DM48" s="11">
+        <v>-1.8</v>
+      </c>
+      <c r="DN48" s="11">
+        <v>-2.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A49" s="22">
         <v>21</v>
       </c>
@@ -14936,16 +15357,25 @@
         <v>59</v>
       </c>
       <c r="DI49" s="29">
-        <v>-6.4</v>
+        <v>-7.3</v>
       </c>
       <c r="DJ49" s="29">
-        <v>-4.9000000000000004</v>
+        <v>-4.3</v>
       </c>
       <c r="DK49" s="29">
-        <v>-4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="50" spans="1:115">
+        <v>-6</v>
+      </c>
+      <c r="DL49" s="11">
+        <v>5.4</v>
+      </c>
+      <c r="DM49" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="DN49" s="11">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A50" s="22">
         <v>22</v>
       </c>
@@ -15283,16 +15713,25 @@
         <v>59</v>
       </c>
       <c r="DI50" s="29">
-        <v>39.299999999999997</v>
+        <v>39.1</v>
       </c>
       <c r="DJ50" s="29">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="DK50" s="29">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:115">
+        <v>8</v>
+      </c>
+      <c r="DL50" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="DM50" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="DN50" s="11">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A51" s="22">
         <v>23</v>
       </c>
@@ -15630,16 +16069,25 @@
         <v>59</v>
       </c>
       <c r="DI51" s="29">
-        <v>18.3</v>
+        <v>20.7</v>
       </c>
       <c r="DJ51" s="29">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="DK51" s="29">
-        <v>20.2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:115">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="DL51" s="11">
+        <v>27.1</v>
+      </c>
+      <c r="DM51" s="11">
+        <v>11.6</v>
+      </c>
+      <c r="DN51" s="11">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A52" s="22">
         <v>24</v>
       </c>
@@ -15980,13 +16428,22 @@
         <v>54.8</v>
       </c>
       <c r="DJ52" s="29">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="DK52" s="29">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:115">
+        <v>11.8</v>
+      </c>
+      <c r="DL52" s="11">
+        <v>6.8</v>
+      </c>
+      <c r="DM52" s="11">
+        <v>6.2</v>
+      </c>
+      <c r="DN52" s="11">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A53" s="22">
         <v>25</v>
       </c>
@@ -16324,16 +16781,25 @@
         <v>59</v>
       </c>
       <c r="DI53" s="29">
-        <v>46.4</v>
+        <v>45.7</v>
       </c>
       <c r="DJ53" s="29">
-        <v>18</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="DK53" s="29">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:115">
+        <v>10.1</v>
+      </c>
+      <c r="DL53" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="DM53" s="11">
+        <v>-3.6</v>
+      </c>
+      <c r="DN53" s="11">
+        <v>-9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="54" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A54" s="22">
         <v>26</v>
       </c>
@@ -16671,16 +17137,25 @@
         <v>59</v>
       </c>
       <c r="DI54" s="29">
-        <v>46.5</v>
+        <v>47.6</v>
       </c>
       <c r="DJ54" s="29">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="DK54" s="29">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:115">
+        <v>-4.5</v>
+      </c>
+      <c r="DL54" s="11">
+        <v>-4.7</v>
+      </c>
+      <c r="DM54" s="11">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="DN54" s="11">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A55" s="22">
         <v>27</v>
       </c>
@@ -17018,16 +17493,25 @@
         <v>59</v>
       </c>
       <c r="DI55" s="29">
-        <v>103.2</v>
+        <v>94.9</v>
       </c>
       <c r="DJ55" s="29">
-        <v>36.1</v>
+        <v>36.5</v>
       </c>
       <c r="DK55" s="29">
-        <v>42.9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:115">
+        <v>43.3</v>
+      </c>
+      <c r="DL55" s="11">
+        <v>37.1</v>
+      </c>
+      <c r="DM55" s="11">
+        <v>13.9</v>
+      </c>
+      <c r="DN55" s="11">
+        <v>-3.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A56" s="22">
         <v>28</v>
       </c>
@@ -17365,16 +17849,25 @@
         <v>59</v>
       </c>
       <c r="DI56" s="29">
-        <v>74.400000000000006</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="DJ56" s="29">
-        <v>19.7</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="DK56" s="29">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:115">
+        <v>27.5</v>
+      </c>
+      <c r="DL56" s="11">
+        <v>17.7</v>
+      </c>
+      <c r="DM56" s="11">
+        <v>3.4</v>
+      </c>
+      <c r="DN56" s="11">
+        <v>-6.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A57" s="22">
         <v>29</v>
       </c>
@@ -17712,16 +18205,25 @@
         <v>59</v>
       </c>
       <c r="DI57" s="29">
-        <v>189.4</v>
+        <v>186</v>
       </c>
       <c r="DJ57" s="29">
-        <v>63.9</v>
+        <v>63.5</v>
       </c>
       <c r="DK57" s="29">
-        <v>35.5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:115">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="DL57" s="11">
+        <v>10.1</v>
+      </c>
+      <c r="DM57" s="11">
+        <v>-9.1</v>
+      </c>
+      <c r="DN57" s="11">
+        <v>-12.6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A58" s="22">
         <v>30</v>
       </c>
@@ -18059,16 +18561,25 @@
         <v>59</v>
       </c>
       <c r="DI58" s="29">
-        <v>135.1</v>
+        <v>128.9</v>
       </c>
       <c r="DJ58" s="29">
         <v>43</v>
       </c>
       <c r="DK58" s="29">
-        <v>19.3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:115">
+        <v>18.3</v>
+      </c>
+      <c r="DL58" s="11">
+        <v>-6.7</v>
+      </c>
+      <c r="DM58" s="11">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="DN58" s="11">
+        <v>-15.6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A59" s="22">
         <v>31</v>
       </c>
@@ -18406,16 +18917,25 @@
         <v>59</v>
       </c>
       <c r="DI59" s="29">
-        <v>95.7</v>
+        <v>95.9</v>
       </c>
       <c r="DJ59" s="29">
-        <v>7.7</v>
+        <v>9.1</v>
       </c>
       <c r="DK59" s="29">
-        <v>-1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:115">
+        <v>2.5</v>
+      </c>
+      <c r="DL59" s="11">
+        <v>-7.1</v>
+      </c>
+      <c r="DM59" s="11">
+        <v>2.6</v>
+      </c>
+      <c r="DN59" s="11">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A60" s="22">
         <v>32</v>
       </c>
@@ -18753,20 +19273,29 @@
         <v>59</v>
       </c>
       <c r="DI60" s="29">
-        <v>137.80000000000001</v>
+        <v>135</v>
       </c>
       <c r="DJ60" s="29">
-        <v>46</v>
+        <v>46.4</v>
       </c>
       <c r="DK60" s="29">
-        <v>66.8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:115">
-      <c r="A61" s="36" t="s">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="DL60" s="11">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="DM60" s="11">
+        <v>57.9</v>
+      </c>
+      <c r="DN60" s="11">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A61" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B61" s="36"/>
+      <c r="B61" s="38"/>
       <c r="C61">
         <v>14.372472</v>
       </c>
@@ -19098,7 +19627,7 @@
         <v>59</v>
       </c>
       <c r="DI61" s="29">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="DJ61" s="29">
         <v>23.1</v>
@@ -19106,12 +19635,21 @@
       <c r="DK61" s="29">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="62" spans="1:115">
-      <c r="A62" s="36" t="s">
+      <c r="DL61" s="11">
+        <v>23.6</v>
+      </c>
+      <c r="DM61" s="11">
+        <v>8.6</v>
+      </c>
+      <c r="DN61" s="11">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A62" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B62" s="36"/>
+      <c r="B62" s="38"/>
       <c r="C62">
         <v>77.633210000000005</v>
       </c>
@@ -19443,20 +19981,29 @@
         <v>59</v>
       </c>
       <c r="DI62" s="29">
-        <v>33.5</v>
+        <v>32.1</v>
       </c>
       <c r="DJ62" s="29">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="DK62" s="29">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="63" spans="1:115">
-      <c r="A63" s="36" t="s">
+      <c r="DL62" s="11">
+        <v>9.9</v>
+      </c>
+      <c r="DM62" s="11">
+        <v>3</v>
+      </c>
+      <c r="DN62" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A63" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="B63" s="36"/>
+      <c r="B63" s="38"/>
       <c r="C63">
         <v>7.9943179999999998</v>
       </c>
@@ -19796,12 +20343,21 @@
       <c r="DK63" s="29">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="64" spans="1:115">
-      <c r="A64" s="36" t="s">
+      <c r="DL63" s="11">
+        <v>16</v>
+      </c>
+      <c r="DM63" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="DN63" s="11">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A64" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B64" s="36"/>
+      <c r="B64" s="38"/>
       <c r="C64">
         <v>100</v>
       </c>
@@ -20133,16 +20689,25 @@
         <v>59</v>
       </c>
       <c r="DI64" s="29">
-        <v>28.6</v>
+        <v>27.6</v>
       </c>
       <c r="DJ64" s="29">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="DK64" s="29">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="65" spans="1:62">
+      <c r="DL64" s="11">
+        <v>12</v>
+      </c>
+      <c r="DM64" s="11">
+        <v>3.3</v>
+      </c>
+      <c r="DN64" s="11">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:117" x14ac:dyDescent="0.25">
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
       <c r="F65" s="11"/>
@@ -20191,8 +20756,12 @@
       <c r="AW65" s="11"/>
       <c r="AX65" s="11"/>
       <c r="AY65" s="11"/>
-    </row>
-    <row r="66" spans="1:62">
+      <c r="DJ65" s="11"/>
+      <c r="DK65" s="11"/>
+      <c r="DL65" s="11"/>
+      <c r="DM65" s="11"/>
+    </row>
+    <row r="66" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>58</v>
       </c>
@@ -20256,25 +20825,41 @@
       <c r="BH66" s="4"/>
       <c r="BI66" s="4"/>
       <c r="BJ66" s="4"/>
-    </row>
-    <row r="67" spans="1:62">
+      <c r="DJ66" s="11"/>
+      <c r="DK66" s="11"/>
+      <c r="DL66" s="11"/>
+      <c r="DM66" s="11"/>
+    </row>
+    <row r="67" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
-    </row>
-    <row r="68" spans="1:62">
+      <c r="DJ67" s="11"/>
+      <c r="DK67" s="11"/>
+      <c r="DL67" s="11"/>
+      <c r="DM67" s="11"/>
+    </row>
+    <row r="68" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
-    </row>
-    <row r="69" spans="1:62">
+      <c r="DJ68" s="11"/>
+      <c r="DK68" s="11"/>
+      <c r="DL68" s="11"/>
+      <c r="DM68" s="11"/>
+    </row>
+    <row r="69" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
-    </row>
-    <row r="70" spans="1:62">
+      <c r="DJ69" s="11"/>
+      <c r="DK69" s="11"/>
+      <c r="DL69" s="11"/>
+      <c r="DM69" s="11"/>
+    </row>
+    <row r="70" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -20289,9 +20874,2076 @@
       <c r="AZ70" s="11"/>
       <c r="BA70" s="11"/>
       <c r="BB70" s="11"/>
+      <c r="DJ70" s="11"/>
+      <c r="DK70" s="11"/>
+      <c r="DL70" s="11"/>
+      <c r="DM70" s="11"/>
+    </row>
+    <row r="71" spans="1:117" x14ac:dyDescent="0.25">
+      <c r="DJ71" s="11"/>
+      <c r="DK71" s="11"/>
+      <c r="DL71" s="11"/>
+      <c r="DM71" s="11"/>
+    </row>
+    <row r="72" spans="1:117" x14ac:dyDescent="0.25">
+      <c r="DJ72" s="11"/>
+      <c r="DK72" s="11"/>
+      <c r="DL72" s="11"/>
+      <c r="DM72" s="11"/>
+    </row>
+    <row r="73" spans="1:117" x14ac:dyDescent="0.25">
+      <c r="DJ73" s="11"/>
+      <c r="DK73" s="11"/>
+      <c r="DL73" s="11"/>
+      <c r="DM73" s="11"/>
+    </row>
+    <row r="74" spans="1:117" x14ac:dyDescent="0.25">
+      <c r="DJ74" s="11"/>
+      <c r="DK74" s="11"/>
+      <c r="DL74" s="11"/>
+      <c r="DM74" s="11"/>
+    </row>
+    <row r="75" spans="1:117" x14ac:dyDescent="0.25">
+      <c r="DJ75" s="11"/>
+      <c r="DK75" s="11"/>
+      <c r="DL75" s="11"/>
+      <c r="DM75" s="11"/>
+    </row>
+    <row r="76" spans="1:117" x14ac:dyDescent="0.25">
+      <c r="DJ76" s="11"/>
+      <c r="DK76" s="11"/>
+      <c r="DL76" s="11"/>
+      <c r="DM76" s="11"/>
+    </row>
+    <row r="77" spans="1:117" x14ac:dyDescent="0.25">
+      <c r="DJ77" s="11"/>
+      <c r="DK77" s="11"/>
+      <c r="DL77" s="11"/>
+      <c r="DM77" s="11"/>
+    </row>
+    <row r="78" spans="1:117" x14ac:dyDescent="0.25">
+      <c r="DJ78" s="11"/>
+      <c r="DK78" s="11"/>
+      <c r="DL78" s="11"/>
+      <c r="DM78" s="11"/>
+    </row>
+    <row r="79" spans="1:117" x14ac:dyDescent="0.25">
+      <c r="DJ79" s="11"/>
+      <c r="DK79" s="11"/>
+      <c r="DL79" s="11"/>
+      <c r="DM79" s="11"/>
+    </row>
+    <row r="80" spans="1:117" x14ac:dyDescent="0.25">
+      <c r="DJ80" s="11"/>
+      <c r="DK80" s="11"/>
+      <c r="DL80" s="11"/>
+      <c r="DM80" s="11"/>
+    </row>
+    <row r="81" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ81" s="11"/>
+      <c r="DK81" s="11"/>
+      <c r="DL81" s="11"/>
+      <c r="DM81" s="11"/>
+    </row>
+    <row r="82" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ82" s="11"/>
+      <c r="DK82" s="11"/>
+      <c r="DL82" s="11"/>
+      <c r="DM82" s="11"/>
+    </row>
+    <row r="83" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ83" s="11"/>
+      <c r="DK83" s="11"/>
+      <c r="DL83" s="11"/>
+      <c r="DM83" s="11"/>
+    </row>
+    <row r="84" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ84" s="11"/>
+      <c r="DK84" s="11"/>
+      <c r="DL84" s="11"/>
+      <c r="DM84" s="11"/>
+    </row>
+    <row r="85" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ85" s="11"/>
+      <c r="DK85" s="11"/>
+      <c r="DL85" s="11"/>
+      <c r="DM85" s="11"/>
+    </row>
+    <row r="86" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ86" s="11"/>
+      <c r="DK86" s="11"/>
+      <c r="DL86" s="11"/>
+      <c r="DM86" s="11"/>
+    </row>
+    <row r="87" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ87" s="11"/>
+      <c r="DK87" s="11"/>
+      <c r="DL87" s="11"/>
+      <c r="DM87" s="11"/>
+    </row>
+    <row r="88" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ88" s="11"/>
+      <c r="DK88" s="11"/>
+      <c r="DL88" s="11"/>
+      <c r="DM88" s="11"/>
+    </row>
+    <row r="89" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ89" s="11"/>
+      <c r="DK89" s="11"/>
+      <c r="DL89" s="11"/>
+      <c r="DM89" s="11"/>
+    </row>
+    <row r="90" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ90" s="11"/>
+      <c r="DK90" s="11"/>
+      <c r="DL90" s="11"/>
+      <c r="DM90" s="11"/>
+    </row>
+    <row r="91" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ91" s="11"/>
+      <c r="DK91" s="11"/>
+      <c r="DL91" s="11"/>
+      <c r="DM91" s="11"/>
+    </row>
+    <row r="92" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ92" s="11"/>
+      <c r="DK92" s="11"/>
+      <c r="DL92" s="11"/>
+      <c r="DM92" s="11"/>
+    </row>
+    <row r="93" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ93" s="11"/>
+      <c r="DK93" s="11"/>
+      <c r="DL93" s="11"/>
+      <c r="DM93" s="11"/>
+    </row>
+    <row r="94" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ94" s="11"/>
+      <c r="DK94" s="11"/>
+      <c r="DL94" s="11"/>
+      <c r="DM94" s="11"/>
+    </row>
+    <row r="95" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ95" s="11"/>
+      <c r="DK95" s="11"/>
+      <c r="DL95" s="11"/>
+      <c r="DM95" s="11"/>
+    </row>
+    <row r="96" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ96" s="11"/>
+      <c r="DK96" s="11"/>
+      <c r="DL96" s="11"/>
+      <c r="DM96" s="11"/>
+    </row>
+    <row r="97" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ97" s="11"/>
+      <c r="DK97" s="11"/>
+      <c r="DL97" s="11"/>
+      <c r="DM97" s="11"/>
+    </row>
+    <row r="98" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ98" s="11"/>
+      <c r="DK98" s="11"/>
+      <c r="DL98" s="11"/>
+      <c r="DM98" s="11"/>
+    </row>
+    <row r="99" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ99" s="11"/>
+      <c r="DK99" s="11"/>
+      <c r="DL99" s="11"/>
+      <c r="DM99" s="11"/>
+    </row>
+    <row r="100" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ100" s="11"/>
+      <c r="DK100" s="11"/>
+      <c r="DL100" s="11"/>
+      <c r="DM100" s="11"/>
+    </row>
+    <row r="101" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ101" s="11"/>
+      <c r="DK101" s="11"/>
+      <c r="DL101" s="11"/>
+      <c r="DM101" s="11"/>
+    </row>
+    <row r="102" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ102" s="11"/>
+      <c r="DK102" s="11"/>
+      <c r="DL102" s="11"/>
+      <c r="DM102" s="11"/>
+    </row>
+    <row r="103" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ103" s="11"/>
+      <c r="DK103" s="11"/>
+      <c r="DL103" s="11"/>
+      <c r="DM103" s="11"/>
+    </row>
+    <row r="104" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ104" s="11"/>
+      <c r="DK104" s="11"/>
+      <c r="DL104" s="11"/>
+      <c r="DM104" s="11"/>
+    </row>
+    <row r="105" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ105" s="11"/>
+      <c r="DK105" s="11"/>
+      <c r="DL105" s="11"/>
+      <c r="DM105" s="11"/>
+    </row>
+    <row r="106" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ106" s="11"/>
+      <c r="DK106" s="11"/>
+      <c r="DL106" s="11"/>
+      <c r="DM106" s="11"/>
+    </row>
+    <row r="107" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ107" s="11"/>
+      <c r="DK107" s="11"/>
+      <c r="DL107" s="11"/>
+      <c r="DM107" s="11"/>
+    </row>
+    <row r="108" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ108" s="11"/>
+      <c r="DK108" s="11"/>
+      <c r="DL108" s="11"/>
+      <c r="DM108" s="11"/>
+    </row>
+    <row r="109" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ109" s="11"/>
+      <c r="DK109" s="11"/>
+      <c r="DL109" s="11"/>
+      <c r="DM109" s="11"/>
+    </row>
+    <row r="110" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ110" s="11"/>
+      <c r="DK110" s="11"/>
+      <c r="DL110" s="11"/>
+      <c r="DM110" s="11"/>
+    </row>
+    <row r="111" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ111" s="11"/>
+      <c r="DK111" s="11"/>
+      <c r="DL111" s="11"/>
+      <c r="DM111" s="11"/>
+    </row>
+    <row r="112" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ112" s="11"/>
+      <c r="DK112" s="11"/>
+      <c r="DL112" s="11"/>
+      <c r="DM112" s="11"/>
+    </row>
+    <row r="113" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ113" s="11"/>
+      <c r="DK113" s="11"/>
+      <c r="DL113" s="11"/>
+      <c r="DM113" s="11"/>
+    </row>
+    <row r="114" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ114" s="11"/>
+      <c r="DK114" s="11"/>
+      <c r="DL114" s="11"/>
+      <c r="DM114" s="11"/>
+    </row>
+    <row r="115" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ115" s="11"/>
+      <c r="DK115" s="11"/>
+      <c r="DL115" s="11"/>
+      <c r="DM115" s="11"/>
+    </row>
+    <row r="116" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ116" s="11"/>
+      <c r="DK116" s="11"/>
+      <c r="DL116" s="11"/>
+      <c r="DM116" s="11"/>
+    </row>
+    <row r="117" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ117" s="11"/>
+      <c r="DK117" s="11"/>
+      <c r="DL117" s="11"/>
+      <c r="DM117" s="11"/>
+    </row>
+    <row r="118" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ118" s="11"/>
+      <c r="DK118" s="11"/>
+      <c r="DL118" s="11"/>
+      <c r="DM118" s="11"/>
+    </row>
+    <row r="119" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ119" s="11"/>
+      <c r="DK119" s="11"/>
+      <c r="DL119" s="11"/>
+      <c r="DM119" s="11"/>
+    </row>
+    <row r="120" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ120" s="11"/>
+      <c r="DK120" s="11"/>
+      <c r="DL120" s="11"/>
+      <c r="DM120" s="11"/>
+    </row>
+    <row r="121" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ121" s="11"/>
+      <c r="DK121" s="11"/>
+      <c r="DL121" s="11"/>
+      <c r="DM121" s="11"/>
+    </row>
+    <row r="122" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ122" s="11"/>
+      <c r="DK122" s="11"/>
+      <c r="DL122" s="11"/>
+      <c r="DM122" s="11"/>
+    </row>
+    <row r="123" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ123" s="11"/>
+      <c r="DK123" s="11"/>
+      <c r="DL123" s="11"/>
+      <c r="DM123" s="11"/>
+    </row>
+    <row r="124" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ124" s="11"/>
+      <c r="DK124" s="11"/>
+      <c r="DL124" s="11"/>
+      <c r="DM124" s="11"/>
+    </row>
+    <row r="125" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ125" s="11"/>
+      <c r="DK125" s="11"/>
+      <c r="DL125" s="11"/>
+      <c r="DM125" s="11"/>
+    </row>
+    <row r="126" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ126" s="11"/>
+      <c r="DK126" s="11"/>
+      <c r="DL126" s="11"/>
+      <c r="DM126" s="11"/>
+    </row>
+    <row r="127" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ127" s="11"/>
+      <c r="DK127" s="11"/>
+      <c r="DL127" s="11"/>
+      <c r="DM127" s="11"/>
+    </row>
+    <row r="128" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ128" s="11"/>
+      <c r="DK128" s="11"/>
+      <c r="DL128" s="11"/>
+      <c r="DM128" s="11"/>
+    </row>
+    <row r="129" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ129" s="11"/>
+      <c r="DK129" s="11"/>
+      <c r="DL129" s="11"/>
+      <c r="DM129" s="11"/>
+    </row>
+    <row r="130" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ130" s="11"/>
+      <c r="DK130" s="11"/>
+      <c r="DL130" s="11"/>
+      <c r="DM130" s="11"/>
+    </row>
+    <row r="131" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ131" s="11"/>
+      <c r="DK131" s="11"/>
+      <c r="DL131" s="11"/>
+      <c r="DM131" s="11"/>
+    </row>
+    <row r="132" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ132" s="11"/>
+      <c r="DK132" s="11"/>
+      <c r="DL132" s="11"/>
+      <c r="DM132" s="11"/>
+    </row>
+    <row r="133" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ133" s="11"/>
+      <c r="DK133" s="11"/>
+      <c r="DL133" s="11"/>
+      <c r="DM133" s="11"/>
+    </row>
+    <row r="134" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ134" s="11"/>
+      <c r="DK134" s="11"/>
+      <c r="DL134" s="11"/>
+      <c r="DM134" s="11"/>
+    </row>
+    <row r="135" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ135" s="11"/>
+      <c r="DK135" s="11"/>
+      <c r="DL135" s="11"/>
+      <c r="DM135" s="11"/>
+    </row>
+    <row r="136" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ136" s="11"/>
+      <c r="DK136" s="11"/>
+      <c r="DL136" s="11"/>
+      <c r="DM136" s="11"/>
+    </row>
+    <row r="137" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ137" s="11"/>
+      <c r="DK137" s="11"/>
+      <c r="DL137" s="11"/>
+      <c r="DM137" s="11"/>
+    </row>
+    <row r="138" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ138" s="11"/>
+      <c r="DK138" s="11"/>
+      <c r="DL138" s="11"/>
+      <c r="DM138" s="11"/>
+    </row>
+    <row r="139" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ139" s="11"/>
+      <c r="DK139" s="11"/>
+      <c r="DL139" s="11"/>
+      <c r="DM139" s="11"/>
+    </row>
+    <row r="140" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ140" s="11"/>
+      <c r="DK140" s="11"/>
+      <c r="DL140" s="11"/>
+      <c r="DM140" s="11"/>
+    </row>
+    <row r="141" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ141" s="11"/>
+      <c r="DK141" s="11"/>
+      <c r="DL141" s="11"/>
+      <c r="DM141" s="11"/>
+    </row>
+    <row r="142" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ142" s="11"/>
+      <c r="DK142" s="11"/>
+      <c r="DL142" s="11"/>
+      <c r="DM142" s="11"/>
+    </row>
+    <row r="143" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ143" s="11"/>
+      <c r="DK143" s="11"/>
+      <c r="DL143" s="11"/>
+      <c r="DM143" s="11"/>
+    </row>
+    <row r="144" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ144" s="11"/>
+      <c r="DK144" s="11"/>
+      <c r="DL144" s="11"/>
+      <c r="DM144" s="11"/>
+    </row>
+    <row r="145" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ145" s="11"/>
+      <c r="DK145" s="11"/>
+      <c r="DL145" s="11"/>
+      <c r="DM145" s="11"/>
+    </row>
+    <row r="146" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ146" s="11"/>
+      <c r="DK146" s="11"/>
+      <c r="DL146" s="11"/>
+      <c r="DM146" s="11"/>
+    </row>
+    <row r="147" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ147" s="11"/>
+      <c r="DK147" s="11"/>
+      <c r="DL147" s="11"/>
+      <c r="DM147" s="11"/>
+    </row>
+    <row r="148" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ148" s="11"/>
+      <c r="DK148" s="11"/>
+      <c r="DL148" s="11"/>
+      <c r="DM148" s="11"/>
+    </row>
+    <row r="149" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ149" s="11"/>
+      <c r="DK149" s="11"/>
+      <c r="DL149" s="11"/>
+      <c r="DM149" s="11"/>
+    </row>
+    <row r="150" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ150" s="11"/>
+      <c r="DK150" s="11"/>
+      <c r="DL150" s="11"/>
+      <c r="DM150" s="11"/>
+    </row>
+    <row r="151" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ151" s="11"/>
+      <c r="DK151" s="11"/>
+      <c r="DL151" s="11"/>
+      <c r="DM151" s="11"/>
+    </row>
+    <row r="152" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ152" s="11"/>
+      <c r="DK152" s="11"/>
+      <c r="DL152" s="11"/>
+      <c r="DM152" s="11"/>
+    </row>
+    <row r="153" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ153" s="11"/>
+      <c r="DK153" s="11"/>
+      <c r="DL153" s="11"/>
+      <c r="DM153" s="11"/>
+    </row>
+    <row r="154" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ154" s="11"/>
+      <c r="DK154" s="11"/>
+      <c r="DL154" s="11"/>
+      <c r="DM154" s="11"/>
+    </row>
+    <row r="155" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ155" s="11"/>
+      <c r="DK155" s="11"/>
+      <c r="DL155" s="11"/>
+      <c r="DM155" s="11"/>
+    </row>
+    <row r="156" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ156" s="11"/>
+      <c r="DK156" s="11"/>
+      <c r="DL156" s="11"/>
+      <c r="DM156" s="11"/>
+    </row>
+    <row r="157" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ157" s="11"/>
+      <c r="DK157" s="11"/>
+      <c r="DL157" s="11"/>
+      <c r="DM157" s="11"/>
+    </row>
+    <row r="158" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ158" s="11"/>
+      <c r="DK158" s="11"/>
+      <c r="DL158" s="11"/>
+      <c r="DM158" s="11"/>
+    </row>
+    <row r="159" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ159" s="11"/>
+      <c r="DK159" s="11"/>
+      <c r="DL159" s="11"/>
+      <c r="DM159" s="11"/>
+    </row>
+    <row r="160" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ160" s="11"/>
+      <c r="DK160" s="11"/>
+      <c r="DL160" s="11"/>
+      <c r="DM160" s="11"/>
+    </row>
+    <row r="161" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ161" s="11"/>
+      <c r="DK161" s="11"/>
+      <c r="DL161" s="11"/>
+      <c r="DM161" s="11"/>
+    </row>
+    <row r="162" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ162" s="11"/>
+      <c r="DK162" s="11"/>
+      <c r="DL162" s="11"/>
+      <c r="DM162" s="11"/>
+    </row>
+    <row r="163" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ163" s="11"/>
+      <c r="DK163" s="11"/>
+      <c r="DL163" s="11"/>
+      <c r="DM163" s="11"/>
+    </row>
+    <row r="164" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ164" s="11"/>
+      <c r="DK164" s="11"/>
+      <c r="DL164" s="11"/>
+      <c r="DM164" s="11"/>
+    </row>
+    <row r="165" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ165" s="11"/>
+      <c r="DK165" s="11"/>
+      <c r="DL165" s="11"/>
+      <c r="DM165" s="11"/>
+    </row>
+    <row r="166" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ166" s="11"/>
+      <c r="DK166" s="11"/>
+      <c r="DL166" s="11"/>
+      <c r="DM166" s="11"/>
+    </row>
+    <row r="167" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ167" s="11"/>
+      <c r="DK167" s="11"/>
+      <c r="DL167" s="11"/>
+      <c r="DM167" s="11"/>
+    </row>
+    <row r="168" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ168" s="11"/>
+      <c r="DK168" s="11"/>
+      <c r="DL168" s="11"/>
+      <c r="DM168" s="11"/>
+    </row>
+    <row r="169" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ169" s="11"/>
+      <c r="DK169" s="11"/>
+      <c r="DL169" s="11"/>
+      <c r="DM169" s="11"/>
+    </row>
+    <row r="170" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ170" s="11"/>
+      <c r="DK170" s="11"/>
+      <c r="DL170" s="11"/>
+      <c r="DM170" s="11"/>
+    </row>
+    <row r="171" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ171" s="11"/>
+      <c r="DK171" s="11"/>
+      <c r="DL171" s="11"/>
+      <c r="DM171" s="11"/>
+    </row>
+    <row r="172" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ172" s="11"/>
+      <c r="DK172" s="11"/>
+      <c r="DL172" s="11"/>
+      <c r="DM172" s="11"/>
+    </row>
+    <row r="173" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ173" s="11"/>
+      <c r="DK173" s="11"/>
+      <c r="DL173" s="11"/>
+      <c r="DM173" s="11"/>
+    </row>
+    <row r="174" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ174" s="11"/>
+      <c r="DK174" s="11"/>
+      <c r="DL174" s="11"/>
+      <c r="DM174" s="11"/>
+    </row>
+    <row r="175" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ175" s="11"/>
+      <c r="DK175" s="11"/>
+      <c r="DL175" s="11"/>
+      <c r="DM175" s="11"/>
+    </row>
+    <row r="176" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ176" s="11"/>
+      <c r="DK176" s="11"/>
+      <c r="DL176" s="11"/>
+      <c r="DM176" s="11"/>
+    </row>
+    <row r="177" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ177" s="11"/>
+      <c r="DK177" s="11"/>
+      <c r="DL177" s="11"/>
+      <c r="DM177" s="11"/>
+    </row>
+    <row r="178" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ178" s="11"/>
+      <c r="DK178" s="11"/>
+      <c r="DL178" s="11"/>
+      <c r="DM178" s="11"/>
+    </row>
+    <row r="179" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ179" s="11"/>
+      <c r="DK179" s="11"/>
+      <c r="DL179" s="11"/>
+      <c r="DM179" s="11"/>
+    </row>
+    <row r="180" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ180" s="11"/>
+      <c r="DK180" s="11"/>
+      <c r="DL180" s="11"/>
+      <c r="DM180" s="11"/>
+    </row>
+    <row r="181" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ181" s="11"/>
+      <c r="DK181" s="11"/>
+      <c r="DL181" s="11"/>
+      <c r="DM181" s="11"/>
+    </row>
+    <row r="182" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ182" s="11"/>
+      <c r="DK182" s="11"/>
+      <c r="DL182" s="11"/>
+      <c r="DM182" s="11"/>
+    </row>
+    <row r="183" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ183" s="11"/>
+      <c r="DK183" s="11"/>
+      <c r="DL183" s="11"/>
+      <c r="DM183" s="11"/>
+    </row>
+    <row r="184" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ184" s="11"/>
+      <c r="DK184" s="11"/>
+      <c r="DL184" s="11"/>
+      <c r="DM184" s="11"/>
+    </row>
+    <row r="185" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ185" s="11"/>
+      <c r="DK185" s="11"/>
+      <c r="DL185" s="11"/>
+      <c r="DM185" s="11"/>
+    </row>
+    <row r="186" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ186" s="11"/>
+      <c r="DK186" s="11"/>
+      <c r="DL186" s="11"/>
+      <c r="DM186" s="11"/>
+    </row>
+    <row r="187" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ187" s="11"/>
+      <c r="DK187" s="11"/>
+      <c r="DL187" s="11"/>
+      <c r="DM187" s="11"/>
+    </row>
+    <row r="188" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ188" s="11"/>
+      <c r="DK188" s="11"/>
+      <c r="DL188" s="11"/>
+      <c r="DM188" s="11"/>
+    </row>
+    <row r="189" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ189" s="11"/>
+      <c r="DK189" s="11"/>
+      <c r="DL189" s="11"/>
+      <c r="DM189" s="11"/>
+    </row>
+    <row r="190" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ190" s="11"/>
+      <c r="DK190" s="11"/>
+      <c r="DL190" s="11"/>
+      <c r="DM190" s="11"/>
+    </row>
+    <row r="191" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ191" s="11"/>
+      <c r="DK191" s="11"/>
+      <c r="DL191" s="11"/>
+      <c r="DM191" s="11"/>
+    </row>
+    <row r="192" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ192" s="11"/>
+      <c r="DK192" s="11"/>
+      <c r="DL192" s="11"/>
+      <c r="DM192" s="11"/>
+    </row>
+    <row r="193" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ193" s="11"/>
+      <c r="DK193" s="11"/>
+      <c r="DL193" s="11"/>
+      <c r="DM193" s="11"/>
+    </row>
+    <row r="194" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ194" s="11"/>
+      <c r="DK194" s="11"/>
+      <c r="DL194" s="11"/>
+      <c r="DM194" s="11"/>
+    </row>
+    <row r="195" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ195" s="11"/>
+      <c r="DK195" s="11"/>
+      <c r="DL195" s="11"/>
+      <c r="DM195" s="11"/>
+    </row>
+    <row r="196" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ196" s="11"/>
+      <c r="DK196" s="11"/>
+      <c r="DL196" s="11"/>
+      <c r="DM196" s="11"/>
+    </row>
+    <row r="197" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ197" s="11"/>
+      <c r="DK197" s="11"/>
+      <c r="DL197" s="11"/>
+      <c r="DM197" s="11"/>
+    </row>
+    <row r="198" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ198" s="11"/>
+      <c r="DK198" s="11"/>
+      <c r="DL198" s="11"/>
+      <c r="DM198" s="11"/>
+    </row>
+    <row r="199" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ199" s="11"/>
+      <c r="DK199" s="11"/>
+      <c r="DL199" s="11"/>
+      <c r="DM199" s="11"/>
+    </row>
+    <row r="200" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ200" s="11"/>
+      <c r="DK200" s="11"/>
+      <c r="DL200" s="11"/>
+      <c r="DM200" s="11"/>
+    </row>
+    <row r="201" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ201" s="11"/>
+      <c r="DK201" s="11"/>
+      <c r="DL201" s="11"/>
+      <c r="DM201" s="11"/>
+    </row>
+    <row r="202" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ202" s="11"/>
+      <c r="DK202" s="11"/>
+      <c r="DL202" s="11"/>
+      <c r="DM202" s="11"/>
+    </row>
+    <row r="203" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ203" s="11"/>
+      <c r="DK203" s="11"/>
+      <c r="DL203" s="11"/>
+      <c r="DM203" s="11"/>
+    </row>
+    <row r="204" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ204" s="11"/>
+      <c r="DK204" s="11"/>
+      <c r="DL204" s="11"/>
+      <c r="DM204" s="11"/>
+    </row>
+    <row r="205" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ205" s="11"/>
+      <c r="DK205" s="11"/>
+      <c r="DL205" s="11"/>
+      <c r="DM205" s="11"/>
+    </row>
+    <row r="206" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ206" s="11"/>
+      <c r="DK206" s="11"/>
+      <c r="DL206" s="11"/>
+      <c r="DM206" s="11"/>
+    </row>
+    <row r="207" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ207" s="11"/>
+      <c r="DK207" s="11"/>
+      <c r="DL207" s="11"/>
+      <c r="DM207" s="11"/>
+    </row>
+    <row r="208" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ208" s="11"/>
+      <c r="DK208" s="11"/>
+      <c r="DL208" s="11"/>
+      <c r="DM208" s="11"/>
+    </row>
+    <row r="209" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ209" s="11"/>
+      <c r="DK209" s="11"/>
+      <c r="DL209" s="11"/>
+      <c r="DM209" s="11"/>
+    </row>
+    <row r="210" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ210" s="11"/>
+      <c r="DK210" s="11"/>
+      <c r="DL210" s="11"/>
+      <c r="DM210" s="11"/>
+    </row>
+    <row r="211" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ211" s="11"/>
+      <c r="DK211" s="11"/>
+      <c r="DL211" s="11"/>
+      <c r="DM211" s="11"/>
+    </row>
+    <row r="212" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ212" s="11"/>
+      <c r="DK212" s="11"/>
+      <c r="DL212" s="11"/>
+      <c r="DM212" s="11"/>
+    </row>
+    <row r="213" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ213" s="11"/>
+      <c r="DK213" s="11"/>
+      <c r="DL213" s="11"/>
+      <c r="DM213" s="11"/>
+    </row>
+    <row r="214" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ214" s="11"/>
+      <c r="DK214" s="11"/>
+      <c r="DL214" s="11"/>
+      <c r="DM214" s="11"/>
+    </row>
+    <row r="215" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ215" s="11"/>
+      <c r="DK215" s="11"/>
+      <c r="DL215" s="11"/>
+      <c r="DM215" s="11"/>
+    </row>
+    <row r="216" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ216" s="11"/>
+      <c r="DK216" s="11"/>
+      <c r="DL216" s="11"/>
+      <c r="DM216" s="11"/>
+    </row>
+    <row r="217" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ217" s="11"/>
+      <c r="DK217" s="11"/>
+      <c r="DL217" s="11"/>
+      <c r="DM217" s="11"/>
+    </row>
+    <row r="218" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ218" s="11"/>
+      <c r="DK218" s="11"/>
+      <c r="DL218" s="11"/>
+      <c r="DM218" s="11"/>
+    </row>
+    <row r="219" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ219" s="11"/>
+      <c r="DK219" s="11"/>
+      <c r="DL219" s="11"/>
+      <c r="DM219" s="11"/>
+    </row>
+    <row r="220" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ220" s="11"/>
+      <c r="DK220" s="11"/>
+      <c r="DL220" s="11"/>
+      <c r="DM220" s="11"/>
+    </row>
+    <row r="221" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ221" s="11"/>
+      <c r="DK221" s="11"/>
+      <c r="DL221" s="11"/>
+      <c r="DM221" s="11"/>
+    </row>
+    <row r="222" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ222" s="11"/>
+      <c r="DK222" s="11"/>
+      <c r="DL222" s="11"/>
+      <c r="DM222" s="11"/>
+    </row>
+    <row r="223" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ223" s="11"/>
+      <c r="DK223" s="11"/>
+      <c r="DL223" s="11"/>
+      <c r="DM223" s="11"/>
+    </row>
+    <row r="224" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ224" s="11"/>
+      <c r="DK224" s="11"/>
+      <c r="DL224" s="11"/>
+      <c r="DM224" s="11"/>
+    </row>
+    <row r="225" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ225" s="11"/>
+      <c r="DK225" s="11"/>
+      <c r="DL225" s="11"/>
+      <c r="DM225" s="11"/>
+    </row>
+    <row r="226" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ226" s="11"/>
+      <c r="DK226" s="11"/>
+      <c r="DL226" s="11"/>
+      <c r="DM226" s="11"/>
+    </row>
+    <row r="227" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ227" s="11"/>
+      <c r="DK227" s="11"/>
+      <c r="DL227" s="11"/>
+      <c r="DM227" s="11"/>
+    </row>
+    <row r="228" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ228" s="11"/>
+      <c r="DK228" s="11"/>
+      <c r="DL228" s="11"/>
+      <c r="DM228" s="11"/>
+    </row>
+    <row r="229" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ229" s="11"/>
+      <c r="DK229" s="11"/>
+      <c r="DL229" s="11"/>
+      <c r="DM229" s="11"/>
+    </row>
+    <row r="230" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ230" s="11"/>
+      <c r="DK230" s="11"/>
+      <c r="DL230" s="11"/>
+      <c r="DM230" s="11"/>
+    </row>
+    <row r="231" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ231" s="11"/>
+      <c r="DK231" s="11"/>
+      <c r="DL231" s="11"/>
+      <c r="DM231" s="11"/>
+    </row>
+    <row r="232" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ232" s="11"/>
+      <c r="DK232" s="11"/>
+      <c r="DL232" s="11"/>
+      <c r="DM232" s="11"/>
+    </row>
+    <row r="233" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ233" s="11"/>
+      <c r="DK233" s="11"/>
+      <c r="DL233" s="11"/>
+      <c r="DM233" s="11"/>
+    </row>
+    <row r="234" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ234" s="11"/>
+      <c r="DK234" s="11"/>
+      <c r="DL234" s="11"/>
+      <c r="DM234" s="11"/>
+    </row>
+    <row r="235" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ235" s="11"/>
+      <c r="DK235" s="11"/>
+      <c r="DL235" s="11"/>
+      <c r="DM235" s="11"/>
+    </row>
+    <row r="236" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ236" s="11"/>
+      <c r="DK236" s="11"/>
+      <c r="DL236" s="11"/>
+      <c r="DM236" s="11"/>
+    </row>
+    <row r="237" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ237" s="11"/>
+      <c r="DK237" s="11"/>
+      <c r="DL237" s="11"/>
+      <c r="DM237" s="11"/>
+    </row>
+    <row r="238" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ238" s="11"/>
+      <c r="DK238" s="11"/>
+      <c r="DL238" s="11"/>
+      <c r="DM238" s="11"/>
+    </row>
+    <row r="239" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ239" s="11"/>
+      <c r="DK239" s="11"/>
+      <c r="DL239" s="11"/>
+      <c r="DM239" s="11"/>
+    </row>
+    <row r="240" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ240" s="11"/>
+      <c r="DK240" s="11"/>
+      <c r="DL240" s="11"/>
+      <c r="DM240" s="11"/>
+    </row>
+    <row r="241" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ241" s="11"/>
+      <c r="DK241" s="11"/>
+      <c r="DL241" s="11"/>
+      <c r="DM241" s="11"/>
+    </row>
+    <row r="242" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ242" s="11"/>
+      <c r="DK242" s="11"/>
+      <c r="DL242" s="11"/>
+      <c r="DM242" s="11"/>
+    </row>
+    <row r="243" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ243" s="11"/>
+      <c r="DK243" s="11"/>
+      <c r="DL243" s="11"/>
+      <c r="DM243" s="11"/>
+    </row>
+    <row r="244" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ244" s="11"/>
+      <c r="DK244" s="11"/>
+      <c r="DL244" s="11"/>
+      <c r="DM244" s="11"/>
+    </row>
+    <row r="245" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ245" s="11"/>
+      <c r="DK245" s="11"/>
+      <c r="DL245" s="11"/>
+      <c r="DM245" s="11"/>
+    </row>
+    <row r="246" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ246" s="11"/>
+      <c r="DK246" s="11"/>
+      <c r="DL246" s="11"/>
+      <c r="DM246" s="11"/>
+    </row>
+    <row r="247" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ247" s="11"/>
+      <c r="DK247" s="11"/>
+      <c r="DL247" s="11"/>
+      <c r="DM247" s="11"/>
+    </row>
+    <row r="248" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ248" s="11"/>
+      <c r="DK248" s="11"/>
+      <c r="DL248" s="11"/>
+      <c r="DM248" s="11"/>
+    </row>
+    <row r="249" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ249" s="11"/>
+      <c r="DK249" s="11"/>
+      <c r="DL249" s="11"/>
+      <c r="DM249" s="11"/>
+    </row>
+    <row r="250" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ250" s="11"/>
+      <c r="DK250" s="11"/>
+      <c r="DL250" s="11"/>
+      <c r="DM250" s="11"/>
+    </row>
+    <row r="251" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ251" s="11"/>
+      <c r="DK251" s="11"/>
+      <c r="DL251" s="11"/>
+      <c r="DM251" s="11"/>
+    </row>
+    <row r="252" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ252" s="11"/>
+      <c r="DK252" s="11"/>
+      <c r="DL252" s="11"/>
+      <c r="DM252" s="11"/>
+    </row>
+    <row r="253" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ253" s="11"/>
+      <c r="DK253" s="11"/>
+      <c r="DL253" s="11"/>
+      <c r="DM253" s="11"/>
+    </row>
+    <row r="254" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ254" s="11"/>
+      <c r="DK254" s="11"/>
+      <c r="DL254" s="11"/>
+      <c r="DM254" s="11"/>
+    </row>
+    <row r="255" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ255" s="11"/>
+      <c r="DK255" s="11"/>
+      <c r="DL255" s="11"/>
+      <c r="DM255" s="11"/>
+    </row>
+    <row r="256" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ256" s="11"/>
+      <c r="DK256" s="11"/>
+      <c r="DL256" s="11"/>
+      <c r="DM256" s="11"/>
+    </row>
+    <row r="257" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ257" s="11"/>
+      <c r="DK257" s="11"/>
+      <c r="DL257" s="11"/>
+      <c r="DM257" s="11"/>
+    </row>
+    <row r="258" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ258" s="11"/>
+      <c r="DK258" s="11"/>
+      <c r="DL258" s="11"/>
+      <c r="DM258" s="11"/>
+    </row>
+    <row r="259" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ259" s="11"/>
+      <c r="DK259" s="11"/>
+      <c r="DL259" s="11"/>
+      <c r="DM259" s="11"/>
+    </row>
+    <row r="260" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ260" s="11"/>
+      <c r="DK260" s="11"/>
+      <c r="DL260" s="11"/>
+      <c r="DM260" s="11"/>
+    </row>
+    <row r="261" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ261" s="11"/>
+      <c r="DK261" s="11"/>
+      <c r="DL261" s="11"/>
+      <c r="DM261" s="11"/>
+    </row>
+    <row r="262" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ262" s="11"/>
+      <c r="DK262" s="11"/>
+      <c r="DL262" s="11"/>
+      <c r="DM262" s="11"/>
+    </row>
+    <row r="263" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ263" s="11"/>
+      <c r="DK263" s="11"/>
+      <c r="DL263" s="11"/>
+      <c r="DM263" s="11"/>
+    </row>
+    <row r="264" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ264" s="11"/>
+      <c r="DK264" s="11"/>
+      <c r="DL264" s="11"/>
+      <c r="DM264" s="11"/>
+    </row>
+    <row r="265" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ265" s="11"/>
+      <c r="DK265" s="11"/>
+      <c r="DL265" s="11"/>
+      <c r="DM265" s="11"/>
+    </row>
+    <row r="266" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ266" s="11"/>
+      <c r="DK266" s="11"/>
+      <c r="DL266" s="11"/>
+      <c r="DM266" s="11"/>
+    </row>
+    <row r="267" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ267" s="11"/>
+      <c r="DK267" s="11"/>
+      <c r="DL267" s="11"/>
+      <c r="DM267" s="11"/>
+    </row>
+    <row r="268" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ268" s="11"/>
+      <c r="DK268" s="11"/>
+      <c r="DL268" s="11"/>
+      <c r="DM268" s="11"/>
+    </row>
+    <row r="269" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ269" s="11"/>
+      <c r="DK269" s="11"/>
+      <c r="DL269" s="11"/>
+      <c r="DM269" s="11"/>
+    </row>
+    <row r="270" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ270" s="11"/>
+      <c r="DK270" s="11"/>
+      <c r="DL270" s="11"/>
+      <c r="DM270" s="11"/>
+    </row>
+    <row r="271" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ271" s="11"/>
+      <c r="DK271" s="11"/>
+      <c r="DL271" s="11"/>
+      <c r="DM271" s="11"/>
+    </row>
+    <row r="272" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ272" s="11"/>
+      <c r="DK272" s="11"/>
+      <c r="DL272" s="11"/>
+      <c r="DM272" s="11"/>
+    </row>
+    <row r="273" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ273" s="11"/>
+      <c r="DK273" s="11"/>
+      <c r="DL273" s="11"/>
+      <c r="DM273" s="11"/>
+    </row>
+    <row r="274" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ274" s="11"/>
+      <c r="DK274" s="11"/>
+      <c r="DL274" s="11"/>
+      <c r="DM274" s="11"/>
+    </row>
+    <row r="275" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ275" s="11"/>
+      <c r="DK275" s="11"/>
+      <c r="DL275" s="11"/>
+      <c r="DM275" s="11"/>
+    </row>
+    <row r="276" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ276" s="11"/>
+      <c r="DK276" s="11"/>
+      <c r="DL276" s="11"/>
+      <c r="DM276" s="11"/>
+    </row>
+    <row r="277" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ277" s="11"/>
+      <c r="DK277" s="11"/>
+      <c r="DL277" s="11"/>
+      <c r="DM277" s="11"/>
+    </row>
+    <row r="278" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ278" s="11"/>
+      <c r="DK278" s="11"/>
+      <c r="DL278" s="11"/>
+      <c r="DM278" s="11"/>
+    </row>
+    <row r="279" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ279" s="11"/>
+      <c r="DK279" s="11"/>
+      <c r="DL279" s="11"/>
+      <c r="DM279" s="11"/>
+    </row>
+    <row r="280" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ280" s="11"/>
+      <c r="DK280" s="11"/>
+      <c r="DL280" s="11"/>
+      <c r="DM280" s="11"/>
+    </row>
+    <row r="281" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ281" s="11"/>
+      <c r="DK281" s="11"/>
+      <c r="DL281" s="11"/>
+      <c r="DM281" s="11"/>
+    </row>
+    <row r="282" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ282" s="11"/>
+      <c r="DK282" s="11"/>
+      <c r="DL282" s="11"/>
+      <c r="DM282" s="11"/>
+    </row>
+    <row r="283" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ283" s="11"/>
+      <c r="DK283" s="11"/>
+      <c r="DL283" s="11"/>
+      <c r="DM283" s="11"/>
+    </row>
+    <row r="284" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ284" s="11"/>
+      <c r="DK284" s="11"/>
+      <c r="DL284" s="11"/>
+      <c r="DM284" s="11"/>
+    </row>
+    <row r="285" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ285" s="11"/>
+      <c r="DK285" s="11"/>
+      <c r="DL285" s="11"/>
+      <c r="DM285" s="11"/>
+    </row>
+    <row r="286" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ286" s="11"/>
+      <c r="DK286" s="11"/>
+      <c r="DL286" s="11"/>
+      <c r="DM286" s="11"/>
+    </row>
+    <row r="287" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ287" s="11"/>
+      <c r="DK287" s="11"/>
+      <c r="DL287" s="11"/>
+      <c r="DM287" s="11"/>
+    </row>
+    <row r="288" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ288" s="11"/>
+      <c r="DK288" s="11"/>
+      <c r="DL288" s="11"/>
+      <c r="DM288" s="11"/>
+    </row>
+    <row r="289" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ289" s="11"/>
+      <c r="DK289" s="11"/>
+      <c r="DL289" s="11"/>
+      <c r="DM289" s="11"/>
+    </row>
+    <row r="290" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ290" s="11"/>
+      <c r="DK290" s="11"/>
+      <c r="DL290" s="11"/>
+      <c r="DM290" s="11"/>
+    </row>
+    <row r="291" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ291" s="11"/>
+      <c r="DK291" s="11"/>
+      <c r="DL291" s="11"/>
+      <c r="DM291" s="11"/>
+    </row>
+    <row r="292" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ292" s="11"/>
+      <c r="DK292" s="11"/>
+      <c r="DL292" s="11"/>
+      <c r="DM292" s="11"/>
+    </row>
+    <row r="293" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ293" s="11"/>
+      <c r="DK293" s="11"/>
+      <c r="DL293" s="11"/>
+      <c r="DM293" s="11"/>
+    </row>
+    <row r="294" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ294" s="11"/>
+      <c r="DK294" s="11"/>
+      <c r="DL294" s="11"/>
+      <c r="DM294" s="11"/>
+    </row>
+    <row r="295" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ295" s="11"/>
+      <c r="DK295" s="11"/>
+      <c r="DL295" s="11"/>
+      <c r="DM295" s="11"/>
+    </row>
+    <row r="296" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ296" s="11"/>
+      <c r="DK296" s="11"/>
+      <c r="DL296" s="11"/>
+      <c r="DM296" s="11"/>
+    </row>
+    <row r="297" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ297" s="11"/>
+      <c r="DK297" s="11"/>
+      <c r="DL297" s="11"/>
+      <c r="DM297" s="11"/>
+    </row>
+    <row r="298" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ298" s="11"/>
+      <c r="DK298" s="11"/>
+      <c r="DL298" s="11"/>
+      <c r="DM298" s="11"/>
+    </row>
+    <row r="299" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ299" s="11"/>
+      <c r="DK299" s="11"/>
+      <c r="DL299" s="11"/>
+      <c r="DM299" s="11"/>
+    </row>
+    <row r="300" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ300" s="11"/>
+      <c r="DK300" s="11"/>
+      <c r="DL300" s="11"/>
+      <c r="DM300" s="11"/>
+    </row>
+    <row r="301" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ301" s="11"/>
+      <c r="DK301" s="11"/>
+      <c r="DL301" s="11"/>
+      <c r="DM301" s="11"/>
+    </row>
+    <row r="302" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ302" s="11"/>
+      <c r="DK302" s="11"/>
+      <c r="DL302" s="11"/>
+      <c r="DM302" s="11"/>
+    </row>
+    <row r="303" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ303" s="11"/>
+      <c r="DK303" s="11"/>
+      <c r="DL303" s="11"/>
+      <c r="DM303" s="11"/>
+    </row>
+    <row r="304" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ304" s="11"/>
+      <c r="DK304" s="11"/>
+      <c r="DL304" s="11"/>
+      <c r="DM304" s="11"/>
+    </row>
+    <row r="305" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ305" s="11"/>
+      <c r="DK305" s="11"/>
+      <c r="DL305" s="11"/>
+      <c r="DM305" s="11"/>
+    </row>
+    <row r="306" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ306" s="11"/>
+      <c r="DK306" s="11"/>
+      <c r="DL306" s="11"/>
+      <c r="DM306" s="11"/>
+    </row>
+    <row r="307" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ307" s="11"/>
+      <c r="DK307" s="11"/>
+      <c r="DL307" s="11"/>
+      <c r="DM307" s="11"/>
+    </row>
+    <row r="308" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ308" s="11"/>
+      <c r="DK308" s="11"/>
+      <c r="DL308" s="11"/>
+      <c r="DM308" s="11"/>
+    </row>
+    <row r="309" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ309" s="11"/>
+      <c r="DK309" s="11"/>
+      <c r="DL309" s="11"/>
+      <c r="DM309" s="11"/>
+    </row>
+    <row r="310" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ310" s="11"/>
+      <c r="DK310" s="11"/>
+      <c r="DL310" s="11"/>
+      <c r="DM310" s="11"/>
+    </row>
+    <row r="311" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ311" s="11"/>
+      <c r="DK311" s="11"/>
+      <c r="DL311" s="11"/>
+      <c r="DM311" s="11"/>
+    </row>
+    <row r="312" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ312" s="11"/>
+      <c r="DK312" s="11"/>
+      <c r="DL312" s="11"/>
+      <c r="DM312" s="11"/>
+    </row>
+    <row r="313" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ313" s="11"/>
+      <c r="DK313" s="11"/>
+      <c r="DL313" s="11"/>
+      <c r="DM313" s="11"/>
+    </row>
+    <row r="314" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ314" s="11"/>
+      <c r="DK314" s="11"/>
+      <c r="DL314" s="11"/>
+      <c r="DM314" s="11"/>
+    </row>
+    <row r="315" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ315" s="11"/>
+      <c r="DK315" s="11"/>
+      <c r="DL315" s="11"/>
+      <c r="DM315" s="11"/>
+    </row>
+    <row r="316" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ316" s="11"/>
+      <c r="DK316" s="11"/>
+      <c r="DL316" s="11"/>
+      <c r="DM316" s="11"/>
+    </row>
+    <row r="317" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ317" s="11"/>
+      <c r="DK317" s="11"/>
+      <c r="DL317" s="11"/>
+      <c r="DM317" s="11"/>
+    </row>
+    <row r="318" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ318" s="11"/>
+      <c r="DK318" s="11"/>
+      <c r="DL318" s="11"/>
+      <c r="DM318" s="11"/>
+    </row>
+    <row r="319" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ319" s="11"/>
+      <c r="DK319" s="11"/>
+      <c r="DL319" s="11"/>
+      <c r="DM319" s="11"/>
+    </row>
+    <row r="320" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ320" s="11"/>
+      <c r="DK320" s="11"/>
+      <c r="DL320" s="11"/>
+      <c r="DM320" s="11"/>
+    </row>
+    <row r="321" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ321" s="11"/>
+      <c r="DK321" s="11"/>
+      <c r="DL321" s="11"/>
+      <c r="DM321" s="11"/>
+    </row>
+    <row r="322" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ322" s="11"/>
+      <c r="DK322" s="11"/>
+      <c r="DL322" s="11"/>
+      <c r="DM322" s="11"/>
+    </row>
+    <row r="323" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ323" s="11"/>
+      <c r="DK323" s="11"/>
+      <c r="DL323" s="11"/>
+      <c r="DM323" s="11"/>
+    </row>
+    <row r="324" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ324" s="11"/>
+      <c r="DK324" s="11"/>
+      <c r="DL324" s="11"/>
+      <c r="DM324" s="11"/>
+    </row>
+    <row r="325" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ325" s="11"/>
+      <c r="DK325" s="11"/>
+      <c r="DL325" s="11"/>
+      <c r="DM325" s="11"/>
+    </row>
+    <row r="326" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ326" s="11"/>
+      <c r="DK326" s="11"/>
+      <c r="DL326" s="11"/>
+      <c r="DM326" s="11"/>
+    </row>
+    <row r="327" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ327" s="11"/>
+      <c r="DK327" s="11"/>
+      <c r="DL327" s="11"/>
+      <c r="DM327" s="11"/>
+    </row>
+    <row r="328" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ328" s="11"/>
+      <c r="DK328" s="11"/>
+      <c r="DL328" s="11"/>
+      <c r="DM328" s="11"/>
+    </row>
+    <row r="329" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ329" s="11"/>
+      <c r="DK329" s="11"/>
+      <c r="DL329" s="11"/>
+      <c r="DM329" s="11"/>
+    </row>
+    <row r="330" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ330" s="11"/>
+      <c r="DK330" s="11"/>
+      <c r="DL330" s="11"/>
+      <c r="DM330" s="11"/>
+    </row>
+    <row r="331" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ331" s="11"/>
+      <c r="DK331" s="11"/>
+      <c r="DL331" s="11"/>
+      <c r="DM331" s="11"/>
+    </row>
+    <row r="332" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ332" s="11"/>
+      <c r="DK332" s="11"/>
+      <c r="DL332" s="11"/>
+      <c r="DM332" s="11"/>
+    </row>
+    <row r="333" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ333" s="11"/>
+      <c r="DK333" s="11"/>
+      <c r="DL333" s="11"/>
+      <c r="DM333" s="11"/>
+    </row>
+    <row r="334" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ334" s="11"/>
+      <c r="DK334" s="11"/>
+      <c r="DL334" s="11"/>
+      <c r="DM334" s="11"/>
+    </row>
+    <row r="335" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ335" s="11"/>
+      <c r="DK335" s="11"/>
+      <c r="DL335" s="11"/>
+      <c r="DM335" s="11"/>
+    </row>
+    <row r="336" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ336" s="11"/>
+      <c r="DK336" s="11"/>
+      <c r="DL336" s="11"/>
+      <c r="DM336" s="11"/>
+    </row>
+    <row r="337" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ337" s="11"/>
+      <c r="DK337" s="11"/>
+      <c r="DL337" s="11"/>
+      <c r="DM337" s="11"/>
+    </row>
+    <row r="338" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ338" s="11"/>
+      <c r="DK338" s="11"/>
+      <c r="DL338" s="11"/>
+      <c r="DM338" s="11"/>
+    </row>
+    <row r="339" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ339" s="11"/>
+      <c r="DK339" s="11"/>
+      <c r="DL339" s="11"/>
+      <c r="DM339" s="11"/>
+    </row>
+    <row r="340" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ340" s="11"/>
+      <c r="DK340" s="11"/>
+      <c r="DL340" s="11"/>
+      <c r="DM340" s="11"/>
+    </row>
+    <row r="341" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ341" s="11"/>
+      <c r="DK341" s="11"/>
+      <c r="DL341" s="11"/>
+      <c r="DM341" s="11"/>
+    </row>
+    <row r="342" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ342" s="11"/>
+      <c r="DK342" s="11"/>
+      <c r="DL342" s="11"/>
+      <c r="DM342" s="11"/>
+    </row>
+    <row r="343" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ343" s="11"/>
+      <c r="DK343" s="11"/>
+      <c r="DL343" s="11"/>
+      <c r="DM343" s="11"/>
+    </row>
+    <row r="344" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ344" s="11"/>
+      <c r="DK344" s="11"/>
+      <c r="DL344" s="11"/>
+      <c r="DM344" s="11"/>
+    </row>
+    <row r="345" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ345" s="11"/>
+      <c r="DK345" s="11"/>
+      <c r="DL345" s="11"/>
+      <c r="DM345" s="11"/>
+    </row>
+    <row r="346" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ346" s="11"/>
+      <c r="DK346" s="11"/>
+      <c r="DL346" s="11"/>
+      <c r="DM346" s="11"/>
+    </row>
+    <row r="347" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ347" s="11"/>
+      <c r="DK347" s="11"/>
+      <c r="DL347" s="11"/>
+      <c r="DM347" s="11"/>
+    </row>
+    <row r="348" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ348" s="11"/>
+      <c r="DK348" s="11"/>
+      <c r="DL348" s="11"/>
+      <c r="DM348" s="11"/>
+    </row>
+    <row r="349" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ349" s="11"/>
+      <c r="DK349" s="11"/>
+      <c r="DL349" s="11"/>
+      <c r="DM349" s="11"/>
+    </row>
+    <row r="350" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ350" s="11"/>
+      <c r="DK350" s="11"/>
+      <c r="DL350" s="11"/>
+      <c r="DM350" s="11"/>
+    </row>
+    <row r="351" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ351" s="11"/>
+      <c r="DK351" s="11"/>
+      <c r="DL351" s="11"/>
+      <c r="DM351" s="11"/>
+    </row>
+    <row r="352" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ352" s="11"/>
+      <c r="DK352" s="11"/>
+      <c r="DL352" s="11"/>
+      <c r="DM352" s="11"/>
+    </row>
+    <row r="353" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ353" s="11"/>
+      <c r="DK353" s="11"/>
+      <c r="DL353" s="11"/>
+      <c r="DM353" s="11"/>
+    </row>
+    <row r="354" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ354" s="11"/>
+      <c r="DK354" s="11"/>
+      <c r="DL354" s="11"/>
+      <c r="DM354" s="11"/>
+    </row>
+    <row r="355" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ355" s="11"/>
+      <c r="DK355" s="11"/>
+      <c r="DL355" s="11"/>
+      <c r="DM355" s="11"/>
+    </row>
+    <row r="356" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ356" s="11"/>
+      <c r="DK356" s="11"/>
+      <c r="DL356" s="11"/>
+      <c r="DM356" s="11"/>
+    </row>
+    <row r="357" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ357" s="11"/>
+      <c r="DK357" s="11"/>
+      <c r="DL357" s="11"/>
+      <c r="DM357" s="11"/>
+    </row>
+    <row r="358" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ358" s="11"/>
+      <c r="DK358" s="11"/>
+      <c r="DL358" s="11"/>
+      <c r="DM358" s="11"/>
+    </row>
+    <row r="359" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ359" s="11"/>
+      <c r="DK359" s="11"/>
+      <c r="DL359" s="11"/>
+      <c r="DM359" s="11"/>
+    </row>
+    <row r="360" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ360" s="11"/>
+      <c r="DK360" s="11"/>
+      <c r="DL360" s="11"/>
+      <c r="DM360" s="11"/>
+    </row>
+    <row r="361" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ361" s="11"/>
+      <c r="DK361" s="11"/>
+      <c r="DL361" s="11"/>
+      <c r="DM361" s="11"/>
+    </row>
+    <row r="362" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ362" s="11"/>
+      <c r="DK362" s="11"/>
+      <c r="DL362" s="11"/>
+      <c r="DM362" s="11"/>
+    </row>
+    <row r="363" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ363" s="11"/>
+      <c r="DK363" s="11"/>
+      <c r="DL363" s="11"/>
+      <c r="DM363" s="11"/>
+    </row>
+    <row r="364" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ364" s="11"/>
+      <c r="DK364" s="11"/>
+      <c r="DL364" s="11"/>
+      <c r="DM364" s="11"/>
+    </row>
+    <row r="365" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ365" s="11"/>
+      <c r="DK365" s="11"/>
+      <c r="DL365" s="11"/>
+      <c r="DM365" s="11"/>
+    </row>
+    <row r="366" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ366" s="11"/>
+      <c r="DK366" s="11"/>
+      <c r="DL366" s="11"/>
+      <c r="DM366" s="11"/>
+    </row>
+    <row r="367" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ367" s="11"/>
+      <c r="DK367" s="11"/>
+      <c r="DL367" s="11"/>
+      <c r="DM367" s="11"/>
+    </row>
+    <row r="368" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ368" s="11"/>
+      <c r="DK368" s="11"/>
+      <c r="DL368" s="11"/>
+      <c r="DM368" s="11"/>
+    </row>
+    <row r="369" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ369" s="11"/>
+      <c r="DK369" s="11"/>
+      <c r="DL369" s="11"/>
+      <c r="DM369" s="11"/>
+    </row>
+    <row r="370" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ370" s="11"/>
+      <c r="DK370" s="11"/>
+      <c r="DL370" s="11"/>
+      <c r="DM370" s="11"/>
+    </row>
+    <row r="371" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ371" s="11"/>
+      <c r="DK371" s="11"/>
+      <c r="DL371" s="11"/>
+      <c r="DM371" s="11"/>
+    </row>
+    <row r="372" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ372" s="11"/>
+      <c r="DK372" s="11"/>
+      <c r="DL372" s="11"/>
+      <c r="DM372" s="11"/>
+    </row>
+    <row r="373" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ373" s="11"/>
+      <c r="DK373" s="11"/>
+      <c r="DL373" s="11"/>
+      <c r="DM373" s="11"/>
+    </row>
+    <row r="374" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ374" s="11"/>
+      <c r="DK374" s="11"/>
+      <c r="DL374" s="11"/>
+      <c r="DM374" s="11"/>
+    </row>
+    <row r="375" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ375" s="11"/>
+      <c r="DK375" s="11"/>
+      <c r="DL375" s="11"/>
+      <c r="DM375" s="11"/>
+    </row>
+    <row r="376" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ376" s="11"/>
+      <c r="DK376" s="11"/>
+      <c r="DL376" s="11"/>
+      <c r="DM376" s="11"/>
+    </row>
+    <row r="377" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ377" s="11"/>
+      <c r="DK377" s="11"/>
+      <c r="DL377" s="11"/>
+      <c r="DM377" s="11"/>
+    </row>
+    <row r="378" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ378" s="11"/>
+      <c r="DK378" s="11"/>
+      <c r="DL378" s="11"/>
+      <c r="DM378" s="11"/>
+    </row>
+    <row r="379" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ379" s="11"/>
+      <c r="DK379" s="11"/>
+      <c r="DL379" s="11"/>
+      <c r="DM379" s="11"/>
+    </row>
+    <row r="380" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ380" s="11"/>
+      <c r="DK380" s="11"/>
+      <c r="DL380" s="11"/>
+      <c r="DM380" s="11"/>
+    </row>
+    <row r="381" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ381" s="11"/>
+      <c r="DK381" s="11"/>
+      <c r="DL381" s="11"/>
+      <c r="DM381" s="11"/>
+    </row>
+    <row r="382" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ382" s="11"/>
+      <c r="DK382" s="11"/>
+      <c r="DL382" s="11"/>
+      <c r="DM382" s="11"/>
+    </row>
+    <row r="383" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ383" s="11"/>
+      <c r="DK383" s="11"/>
+      <c r="DL383" s="11"/>
+      <c r="DM383" s="11"/>
+    </row>
+    <row r="384" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ384" s="11"/>
+      <c r="DK384" s="11"/>
+      <c r="DL384" s="11"/>
+      <c r="DM384" s="11"/>
+    </row>
+    <row r="385" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ385" s="11"/>
+      <c r="DK385" s="11"/>
+      <c r="DL385" s="11"/>
+      <c r="DM385" s="11"/>
+    </row>
+    <row r="386" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ386" s="11"/>
+      <c r="DK386" s="11"/>
+      <c r="DL386" s="11"/>
+      <c r="DM386" s="11"/>
+    </row>
+    <row r="387" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ387" s="11"/>
+      <c r="DK387" s="11"/>
+      <c r="DL387" s="11"/>
+      <c r="DM387" s="11"/>
+    </row>
+    <row r="388" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ388" s="11"/>
+      <c r="DK388" s="11"/>
+      <c r="DL388" s="11"/>
+      <c r="DM388" s="11"/>
+    </row>
+    <row r="389" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ389" s="11"/>
+      <c r="DK389" s="11"/>
+      <c r="DL389" s="11"/>
+      <c r="DM389" s="11"/>
+    </row>
+    <row r="390" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ390" s="11"/>
+      <c r="DK390" s="11"/>
+      <c r="DL390" s="11"/>
+      <c r="DM390" s="11"/>
+    </row>
+    <row r="391" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ391" s="11"/>
+      <c r="DK391" s="11"/>
+      <c r="DL391" s="11"/>
+      <c r="DM391" s="11"/>
+    </row>
+    <row r="392" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ392" s="11"/>
+      <c r="DK392" s="11"/>
+      <c r="DL392" s="11"/>
+      <c r="DM392" s="11"/>
+    </row>
+    <row r="393" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ393" s="11"/>
+      <c r="DK393" s="11"/>
+      <c r="DL393" s="11"/>
+      <c r="DM393" s="11"/>
+    </row>
+    <row r="394" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ394" s="11"/>
+      <c r="DK394" s="11"/>
+      <c r="DL394" s="11"/>
+      <c r="DM394" s="11"/>
+    </row>
+    <row r="395" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ395" s="11"/>
+      <c r="DK395" s="11"/>
+      <c r="DL395" s="11"/>
+      <c r="DM395" s="11"/>
+    </row>
+    <row r="396" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ396" s="11"/>
+      <c r="DK396" s="11"/>
+      <c r="DL396" s="11"/>
+      <c r="DM396" s="11"/>
+    </row>
+    <row r="397" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ397" s="11"/>
+      <c r="DK397" s="11"/>
+      <c r="DL397" s="11"/>
+      <c r="DM397" s="11"/>
+    </row>
+    <row r="398" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ398" s="11"/>
+      <c r="DK398" s="11"/>
+      <c r="DL398" s="11"/>
+      <c r="DM398" s="11"/>
+    </row>
+    <row r="399" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ399" s="11"/>
+      <c r="DK399" s="11"/>
+      <c r="DL399" s="11"/>
+      <c r="DM399" s="11"/>
+    </row>
+    <row r="400" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ400" s="11"/>
+      <c r="DK400" s="11"/>
+      <c r="DL400" s="11"/>
+      <c r="DM400" s="11"/>
+    </row>
+    <row r="401" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ401" s="11"/>
+      <c r="DK401" s="11"/>
+      <c r="DL401" s="11"/>
+      <c r="DM401" s="11"/>
+    </row>
+    <row r="402" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ402" s="11"/>
+      <c r="DK402" s="11"/>
+      <c r="DL402" s="11"/>
+      <c r="DM402" s="11"/>
+    </row>
+    <row r="403" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ403" s="11"/>
+      <c r="DK403" s="11"/>
+      <c r="DL403" s="11"/>
+      <c r="DM403" s="11"/>
+    </row>
+    <row r="404" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ404" s="11"/>
+      <c r="DK404" s="11"/>
+      <c r="DL404" s="11"/>
+      <c r="DM404" s="11"/>
+    </row>
+    <row r="405" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ405" s="11"/>
+      <c r="DK405" s="11"/>
+      <c r="DL405" s="11"/>
+      <c r="DM405" s="11"/>
+    </row>
+    <row r="406" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ406" s="11"/>
+      <c r="DK406" s="11"/>
+      <c r="DL406" s="11"/>
+      <c r="DM406" s="11"/>
+    </row>
+    <row r="407" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ407" s="11"/>
+      <c r="DK407" s="11"/>
+      <c r="DL407" s="11"/>
+      <c r="DM407" s="11"/>
+    </row>
+    <row r="408" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ408" s="11"/>
+      <c r="DK408" s="11"/>
+      <c r="DL408" s="11"/>
+      <c r="DM408" s="11"/>
+    </row>
+    <row r="409" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ409" s="11"/>
+      <c r="DK409" s="11"/>
+      <c r="DL409" s="11"/>
+      <c r="DM409" s="11"/>
+    </row>
+    <row r="410" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ410" s="11"/>
+      <c r="DK410" s="11"/>
+      <c r="DL410" s="11"/>
+      <c r="DM410" s="11"/>
+    </row>
+    <row r="411" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ411" s="11"/>
+      <c r="DK411" s="11"/>
+      <c r="DL411" s="11"/>
+      <c r="DM411" s="11"/>
+    </row>
+    <row r="412" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ412" s="11"/>
+      <c r="DK412" s="11"/>
+      <c r="DL412" s="11"/>
+      <c r="DM412" s="11"/>
+    </row>
+    <row r="413" spans="114:117" x14ac:dyDescent="0.25">
+      <c r="DJ413" s="11"/>
+      <c r="DK413" s="11"/>
+      <c r="DL413" s="11"/>
+      <c r="DM413" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A32:B32"/>
@@ -20299,11 +22951,6 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -20311,46 +22958,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DJ25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:DM25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="CY7" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="CP7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="DJ6" sqref="DJ6"/>
+      <selection pane="bottomRight" activeCell="DK17" sqref="DK17:DM22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.28515625" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:114">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:117" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-    </row>
-    <row r="2" spans="1:114">
-      <c r="A2" s="38" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+    </row>
+    <row r="2" spans="1:117" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-    </row>
-    <row r="3" spans="1:114">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+    </row>
+    <row r="3" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:114">
+    <row r="4" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
         <v>41</v>
       </c>
@@ -20359,14 +23006,14 @@
       <c r="D4" s="37"/>
       <c r="E4" s="37"/>
     </row>
-    <row r="5" spans="1:114">
+    <row r="5" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="1:114">
+    <row r="6" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>40</v>
       </c>
@@ -20709,8 +23356,17 @@
       <c r="DJ6" s="4">
         <v>44378</v>
       </c>
-    </row>
-    <row r="7" spans="1:114">
+      <c r="DK6" s="4">
+        <v>44409</v>
+      </c>
+      <c r="DL6" s="4">
+        <v>44440</v>
+      </c>
+      <c r="DM6" s="4">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="7" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -21045,7 +23701,7 @@
         <v>126.5</v>
       </c>
       <c r="DH7" s="11">
-        <v>122.7</v>
+        <v>122.8</v>
       </c>
       <c r="DI7" s="11">
         <v>122.4</v>
@@ -21053,8 +23709,17 @@
       <c r="DJ7" s="11">
         <v>128.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:114">
+      <c r="DK7" s="11">
+        <v>127.3</v>
+      </c>
+      <c r="DL7" s="11">
+        <v>117.3</v>
+      </c>
+      <c r="DM7" s="1">
+        <v>128.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -21389,16 +24054,25 @@
         <v>79</v>
       </c>
       <c r="DH8" s="11">
-        <v>63.1</v>
+        <v>61.9</v>
       </c>
       <c r="DI8" s="11">
-        <v>80.8</v>
+        <v>81.2</v>
       </c>
       <c r="DJ8" s="11">
-        <v>91.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:114">
+        <v>92.4</v>
+      </c>
+      <c r="DK8" s="11">
+        <v>91</v>
+      </c>
+      <c r="DL8" s="11">
+        <v>92.5</v>
+      </c>
+      <c r="DM8" s="1">
+        <v>90.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -21733,16 +24407,25 @@
         <v>139.6</v>
       </c>
       <c r="DH9" s="11">
-        <v>129.19999999999999</v>
+        <v>129.1</v>
       </c>
       <c r="DI9" s="11">
-        <v>132.80000000000001</v>
+        <v>132.69999999999999</v>
       </c>
       <c r="DJ9" s="11">
-        <v>143.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:114">
+        <v>143.69999999999999</v>
+      </c>
+      <c r="DK9" s="11">
+        <v>143</v>
+      </c>
+      <c r="DL9" s="11">
+        <v>140.30000000000001</v>
+      </c>
+      <c r="DM9" s="1">
+        <v>143.69999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -22077,16 +24760,25 @@
         <v>144</v>
       </c>
       <c r="DH10" s="11">
-        <v>128.69999999999999</v>
+        <v>129.5</v>
       </c>
       <c r="DI10" s="11">
-        <v>137.69999999999999</v>
+        <v>137.9</v>
       </c>
       <c r="DJ10" s="11">
-        <v>143.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:114">
+        <v>144.4</v>
+      </c>
+      <c r="DK10" s="11">
+        <v>145.6</v>
+      </c>
+      <c r="DL10" s="11">
+        <v>143.1</v>
+      </c>
+      <c r="DM10" s="1">
+        <v>151.80000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
@@ -22421,16 +25113,25 @@
         <v>103.3</v>
       </c>
       <c r="DH11" s="11">
-        <v>76.2</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="DI11" s="11">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="DJ11" s="11">
-        <v>119.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:114">
+        <v>118.7</v>
+      </c>
+      <c r="DK11" s="11">
+        <v>118.5</v>
+      </c>
+      <c r="DL11" s="11">
+        <v>126.5</v>
+      </c>
+      <c r="DM11" s="1">
+        <v>125.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
@@ -22765,16 +25466,25 @@
         <v>140</v>
       </c>
       <c r="DH12" s="11">
-        <v>137.19999999999999</v>
+        <v>135.6</v>
       </c>
       <c r="DI12" s="11">
-        <v>141.19999999999999</v>
+        <v>141.80000000000001</v>
       </c>
       <c r="DJ12" s="11">
-        <v>146.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:114">
+        <v>145.9</v>
+      </c>
+      <c r="DK12" s="11">
+        <v>147.9</v>
+      </c>
+      <c r="DL12" s="11">
+        <v>147.69999999999999</v>
+      </c>
+      <c r="DM12" s="1">
+        <v>149.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:117" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -22837,7 +25547,7 @@
       <c r="BI13" s="11"/>
       <c r="BJ13" s="11"/>
     </row>
-    <row r="14" spans="1:114">
+    <row r="14" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>53</v>
       </c>
@@ -22846,7 +25556,7 @@
       <c r="D14" s="37"/>
       <c r="E14" s="37"/>
     </row>
-    <row r="16" spans="1:114">
+    <row r="16" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>51</v>
       </c>
@@ -23189,8 +25899,17 @@
       <c r="DJ16" s="30">
         <v>44378</v>
       </c>
-    </row>
-    <row r="17" spans="1:114">
+      <c r="DK16" s="30">
+        <v>44409</v>
+      </c>
+      <c r="DL16" s="30">
+        <v>44440</v>
+      </c>
+      <c r="DM16" s="30">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="17" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -23533,8 +26252,17 @@
       <c r="DJ17" s="31">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="18" spans="1:114">
+      <c r="DK17" s="11">
+        <v>17</v>
+      </c>
+      <c r="DL17" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="DM17" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -23869,16 +26597,25 @@
         <v>59</v>
       </c>
       <c r="DH18" s="31">
-        <v>78.2</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="DI18" s="31">
-        <v>26.6</v>
+        <v>27.3</v>
       </c>
       <c r="DJ18" s="31">
-        <v>29.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:114">
+        <v>30.3</v>
+      </c>
+      <c r="DK18" s="11">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="DL18" s="11">
+        <v>2.4</v>
+      </c>
+      <c r="DM18" s="11">
+        <v>-1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -24213,16 +26950,25 @@
         <v>59</v>
       </c>
       <c r="DH19" s="31">
-        <v>54.4</v>
+        <v>54.2</v>
       </c>
       <c r="DI19" s="31">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="DJ19" s="31">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:114">
+        <v>14.6</v>
+      </c>
+      <c r="DK19" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="DL19" s="11">
+        <v>5</v>
+      </c>
+      <c r="DM19" s="11">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
@@ -24557,16 +27303,25 @@
         <v>59</v>
       </c>
       <c r="DH20" s="31">
-        <v>45.6</v>
+        <v>46.5</v>
       </c>
       <c r="DI20" s="31">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="DJ20" s="31">
-        <v>11.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:114">
+        <v>12.3</v>
+      </c>
+      <c r="DK20" s="11">
+        <v>11.4</v>
+      </c>
+      <c r="DL20" s="11">
+        <v>7.8</v>
+      </c>
+      <c r="DM20" s="11">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -24901,16 +27656,25 @@
         <v>59</v>
       </c>
       <c r="DH21" s="31">
-        <v>91.9</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="DI21" s="31">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="DJ21" s="31">
-        <v>20.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:114">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="DK21" s="11">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="DL21" s="11">
+        <v>-1.9</v>
+      </c>
+      <c r="DM21" s="11">
+        <v>-6.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
@@ -25245,16 +28009,25 @@
         <v>59</v>
       </c>
       <c r="DH22" s="31">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="DI22" s="31">
-        <v>-4.3</v>
+        <v>-3.9</v>
       </c>
       <c r="DJ22" s="31">
-        <v>-1.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:114">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="DK22" s="11">
+        <v>5.6</v>
+      </c>
+      <c r="DL22" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="DM22" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:117" x14ac:dyDescent="0.25">
       <c r="BY23" s="25"/>
       <c r="BZ23" s="25"/>
       <c r="CA23" s="25"/>
@@ -25294,12 +28067,12 @@
       <c r="DI23" s="25"/>
       <c r="DJ23" s="25"/>
     </row>
-    <row r="24" spans="1:114">
+    <row r="24" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:114">
+    <row r="25" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>60</v>
       </c>
@@ -25316,14 +28089,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.5703125" customWidth="1"/>
@@ -25331,44 +28104,44 @@
     <col min="4" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="15.75">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-    </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="15.75">
-      <c r="A2" s="38" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-    </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="15.75">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="15.75">
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
         <v>47</v>
       </c>
@@ -25384,7 +28157,7 @@
       <c r="K4" s="37"/>
       <c r="L4" s="37"/>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="15.75">
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -25398,7 +28171,7 @@
       <c r="K5" s="27"/>
       <c r="L5" s="32"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75">
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -25436,7 +28209,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75">
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>10</v>
       </c>
@@ -25474,7 +28247,7 @@
         <v>120.4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75">
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>11</v>
       </c>
@@ -25512,7 +28285,7 @@
         <v>78.900000000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75">
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>12</v>
       </c>
@@ -25550,7 +28323,7 @@
         <v>81.8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75">
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>13</v>
       </c>
@@ -25588,7 +28361,7 @@
         <v>91.1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75">
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>14</v>
       </c>
@@ -25626,7 +28399,7 @@
         <v>108.4</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75">
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>15</v>
       </c>
@@ -25664,7 +28437,7 @@
         <v>100.6</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="47.25">
+    <row r="13" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>16</v>
       </c>
@@ -25702,7 +28475,7 @@
         <v>91.5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75">
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>17</v>
       </c>
@@ -25740,7 +28513,7 @@
         <v>69.599999999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75">
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>18</v>
       </c>
@@ -25778,7 +28551,7 @@
         <v>65.3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75">
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>19</v>
       </c>
@@ -25816,7 +28589,7 @@
         <v>111.2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75">
+    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>20</v>
       </c>
@@ -25854,7 +28627,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="31.5">
+    <row r="18" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>21</v>
       </c>
@@ -25892,7 +28665,7 @@
         <v>218.7</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75">
+    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>22</v>
       </c>
@@ -25930,7 +28703,7 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75">
+    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>23</v>
       </c>
@@ -25968,7 +28741,7 @@
         <v>105.7</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75">
+    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>24</v>
       </c>
@@ -26006,7 +28779,7 @@
         <v>149.80000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="31.5">
+    <row r="22" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>25</v>
       </c>
@@ -26044,7 +28817,7 @@
         <v>78.2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="31.5">
+    <row r="23" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>26</v>
       </c>
@@ -26082,7 +28855,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.75">
+    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>27</v>
       </c>
@@ -26120,7 +28893,7 @@
         <v>92.3</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75">
+    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>28</v>
       </c>
@@ -26158,7 +28931,7 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="31.5">
+    <row r="26" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>29</v>
       </c>
@@ -26196,7 +28969,7 @@
         <v>81.099999999999994</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15.75">
+    <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>30</v>
       </c>
@@ -26234,7 +29007,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15.75">
+    <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>31</v>
       </c>
@@ -26272,7 +29045,7 @@
         <v>142.19999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15.75">
+    <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>32</v>
       </c>
@@ -26310,11 +29083,11 @@
         <v>62.9</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.75">
-      <c r="A30" s="38" t="s">
+    <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="38"/>
+      <c r="B30" s="36"/>
       <c r="C30" s="7">
         <v>14.372472</v>
       </c>
@@ -26346,11 +29119,11 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75">
-      <c r="A31" s="38" t="s">
+    <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="38"/>
+      <c r="B31" s="36"/>
       <c r="C31" s="7">
         <v>77.633210000000005</v>
       </c>
@@ -26382,11 +29155,11 @@
         <v>117.2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75">
-      <c r="A32" s="38" t="s">
+    <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="38"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="7">
         <v>7.9943179999999998</v>
       </c>
@@ -26418,11 +29191,11 @@
         <v>157.6</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15.75">
-      <c r="A33" s="38" t="s">
+    <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="38"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="17">
         <v>100</v>
       </c>
@@ -26454,7 +29227,7 @@
         <v>118.1</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="1" customFormat="1" ht="15.75">
+    <row r="36" spans="1:12" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="37" t="s">
         <v>48</v>
       </c>
@@ -26466,7 +29239,7 @@
       <c r="G36" s="37"/>
       <c r="H36" s="37"/>
     </row>
-    <row r="37" spans="1:12" s="1" customFormat="1" ht="15.75">
+    <row r="37" spans="1:12" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -26480,7 +29253,7 @@
       <c r="K37" s="27"/>
       <c r="L37" s="32"/>
     </row>
-    <row r="38" spans="1:12" ht="15.75">
+    <row r="38" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>0</v>
       </c>
@@ -26518,7 +29291,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.75">
+    <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
         <v>10</v>
       </c>
@@ -26556,7 +29329,7 @@
         <v>-2.7</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15.75">
+    <row r="40" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
         <v>11</v>
       </c>
@@ -26594,7 +29367,7 @@
         <v>-25.8</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15.75">
+    <row r="41" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
         <v>12</v>
       </c>
@@ -26632,7 +29405,7 @@
         <v>-14.3</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15.75">
+    <row r="42" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
         <v>13</v>
       </c>
@@ -26670,7 +29443,7 @@
         <v>-21.3</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15.75">
+    <row r="43" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
         <v>14</v>
       </c>
@@ -26708,7 +29481,7 @@
         <v>-29.9</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15.75">
+    <row r="44" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
         <v>15</v>
       </c>
@@ -26746,7 +29519,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="47.25">
+    <row r="45" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>16</v>
       </c>
@@ -26784,7 +29557,7 @@
         <v>-19.600000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15.75">
+    <row r="46" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
         <v>17</v>
       </c>
@@ -26822,7 +29595,7 @@
         <v>-23.3</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15.75">
+    <row r="47" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
         <v>18</v>
       </c>
@@ -26860,7 +29633,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15.75">
+    <row r="48" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
         <v>19</v>
       </c>
@@ -26898,7 +29671,7 @@
         <v>-12.2</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15.75">
+    <row r="49" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
         <v>20</v>
       </c>
@@ -26936,7 +29709,7 @@
         <v>-2.1</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="31.5">
+    <row r="50" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
         <v>21</v>
       </c>
@@ -26974,7 +29747,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15.75">
+    <row r="51" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
         <v>22</v>
       </c>
@@ -27012,7 +29785,7 @@
         <v>-3.7</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="15.75">
+    <row r="52" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
         <v>23</v>
       </c>
@@ -27050,7 +29823,7 @@
         <v>-12.9</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15.75">
+    <row r="53" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="16">
         <v>24</v>
       </c>
@@ -27088,7 +29861,7 @@
         <v>-5.8</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="31.5">
+    <row r="54" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A54" s="16">
         <v>25</v>
       </c>
@@ -27126,7 +29899,7 @@
         <v>-13.7</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="31.5">
+    <row r="55" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A55" s="16">
         <v>26</v>
       </c>
@@ -27164,7 +29937,7 @@
         <v>-12.6</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="15.75">
+    <row r="56" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="16">
         <v>27</v>
       </c>
@@ -27202,7 +29975,7 @@
         <v>-12.3</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15.75">
+    <row r="57" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="16">
         <v>28</v>
       </c>
@@ -27240,7 +30013,7 @@
         <v>-14.1</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="31.5">
+    <row r="58" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
         <v>29</v>
       </c>
@@ -27278,7 +30051,7 @@
         <v>-19.100000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15.75">
+    <row r="59" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="16">
         <v>30</v>
       </c>
@@ -27316,7 +30089,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15.75">
+    <row r="60" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="16">
         <v>31</v>
       </c>
@@ -27354,7 +30127,7 @@
         <v>-27.9</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15.75">
+    <row r="61" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="16">
         <v>32</v>
       </c>
@@ -27392,11 +30165,11 @@
         <v>-22.5</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="15.75">
-      <c r="A62" s="38" t="s">
+    <row r="62" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B62" s="38"/>
+      <c r="B62" s="36"/>
       <c r="C62" s="7">
         <v>14.372472</v>
       </c>
@@ -27428,11 +30201,11 @@
         <v>-7.8</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="15.75">
-      <c r="A63" s="38" t="s">
+    <row r="63" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B63" s="38"/>
+      <c r="B63" s="36"/>
       <c r="C63" s="7">
         <v>77.633210000000005</v>
       </c>
@@ -27464,11 +30237,11 @@
         <v>-9.6</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="15.75">
-      <c r="A64" s="38" t="s">
+    <row r="64" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B64" s="38"/>
+      <c r="B64" s="36"/>
       <c r="C64" s="7">
         <v>7.9943179999999998</v>
       </c>
@@ -27500,11 +30273,11 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="15.75">
-      <c r="A65" s="38" t="s">
+    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B65" s="38"/>
+      <c r="B65" s="36"/>
       <c r="C65" s="17">
         <v>100</v>
       </c>
@@ -27538,6 +30311,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="A65:B65"/>
     <mergeCell ref="A33:B33"/>
@@ -27545,25 +30323,20 @@
     <mergeCell ref="A36:H36"/>
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18:K23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
@@ -27571,35 +30344,35 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="38" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
         <v>49</v>
       </c>
@@ -27611,14 +30384,14 @@
       <c r="G4" s="37"/>
       <c r="H4" s="37"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>40</v>
       </c>
@@ -27653,7 +30426,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -27688,7 +30461,7 @@
         <v>118.1</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -27723,7 +30496,7 @@
         <v>75.900000000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -27758,7 +30531,7 @@
         <v>124.7</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -27793,7 +30566,7 @@
         <v>124.7</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
@@ -27828,7 +30601,7 @@
         <v>101.2</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
@@ -27863,16 +30636,16 @@
         <v>142.1</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>50</v>
       </c>
@@ -27884,7 +30657,7 @@
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>40</v>
       </c>
@@ -27919,7 +30692,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -27954,7 +30727,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -27989,7 +30762,7 @@
         <v>-18.600000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -28024,7 +30797,7 @@
         <v>-9.4</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
@@ -28059,7 +30832,7 @@
         <v>-8.6999999999999993</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
@@ -28094,7 +30867,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
@@ -28129,7 +30902,7 @@
         <v>-2.2000000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" s="14"/>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
